--- a/wp-content/themes/suite/file/2022_ctchn_member.xlsx
+++ b/wp-content/themes/suite/file/2022_ctchn_member.xlsx
@@ -91,7 +91,7 @@
     <t>名譽會長</t>
   </si>
   <si>
-    <t xml:space="preserve">laifucius@gmail.com; </t>
+    <t>laifucius@gmail.com</t>
   </si>
   <si>
     <t>S03</t>
@@ -334,7 +334,7 @@
     <t>024-38783160</t>
   </si>
   <si>
-    <t>jml689@hn.vnn.vn; jml166@hn.vnn.vn</t>
+    <t>jml689@hn.vnn.vn</t>
   </si>
   <si>
     <t>S13</t>
@@ -781,7 +781,7 @@
     <t>024-37834618</t>
   </si>
   <si>
-    <t>cy.chang@nakagawakagaku.com.vn; tkv@nakagawakagaku.com.vn</t>
+    <t>cy.chang@nakagawakagaku.com.vn</t>
   </si>
   <si>
     <t>S33</t>
@@ -901,7 +901,7 @@
     <t>024-37833721</t>
   </si>
   <si>
-    <t xml:space="preserve">th-kuo@vedaninternational.com; kuotinghung1994@gmail.com </t>
+    <t>th-kuo@vedaninternational.com</t>
   </si>
   <si>
     <t>S38</t>
@@ -928,7 +928,7 @@
     <t>0918 066 136</t>
   </si>
   <si>
-    <t>shunfarland@gmail.com;eric.chen@brico.com.tw</t>
+    <t>shunfarland@gmail.com</t>
   </si>
   <si>
     <t>S39</t>
@@ -994,7 +994,7 @@
     <t>Xã Bằng Phúc, huyện Chợ Đồn, tỉnh Bắc Kạn</t>
   </si>
   <si>
-    <t>北𣴓省,屯場縣，平福社</t>
+    <t>北𣴓省, 屯場縣, 平福社</t>
   </si>
   <si>
     <t>郭修政</t>
@@ -1066,7 +1066,7 @@
     <t>024-22203168</t>
   </si>
   <si>
-    <t>akilasu0326@gmail.com ; luuthuha.lqh@gmail.com</t>
+    <t xml:space="preserve">akilasu0326@gmail.com </t>
   </si>
   <si>
     <t>S46</t>
@@ -1087,7 +1087,7 @@
     <t>024-37722212</t>
   </si>
   <si>
-    <t>calvin.liaw@fubon.com;Elsa.peng@fubon.com;daniel.tien@fubon.com</t>
+    <t>calvin.liaw@fubon.com</t>
   </si>
   <si>
     <t>S47</t>
@@ -1135,7 +1135,7 @@
     <t>024-38249088</t>
   </si>
   <si>
-    <t>elton.cheng@ctbcbank.com; chita.chen@ctbcbank.com</t>
+    <t>elton.cheng@ctbcbank.com</t>
   </si>
   <si>
     <t>S49</t>
@@ -1183,7 +1183,7 @@
     <t>024-39362111</t>
   </si>
   <si>
-    <t>i82096@firstbank.com.tw ;  i914a@firstbank.com.tw</t>
+    <t xml:space="preserve">i82096@firstbank.com.tw </t>
   </si>
   <si>
     <t>S51</t>
@@ -1234,7 +1234,7 @@
     <t>024-39361606</t>
   </si>
   <si>
-    <t>oscarchen@evaair.com；vincentpeng@evaair.com</t>
+    <t>oscarchen@evaair.com</t>
   </si>
   <si>
     <t>S53</t>
@@ -1258,7 +1258,7 @@
     <t>024-38335513</t>
   </si>
   <si>
-    <t>justin.kao@ctci.com; h.c.huang@ctci.com</t>
+    <t>justin.kao@ctci.com</t>
   </si>
   <si>
     <t>S54</t>
@@ -1282,7 +1282,7 @@
     <t>024-35841688</t>
   </si>
   <si>
-    <t xml:space="preserve">caztaiyu@hotmail.com; yhy121212@hotmail.com </t>
+    <t xml:space="preserve">caztaiyu@hotmail.com </t>
   </si>
   <si>
     <t>S55</t>
@@ -1306,7 +1306,7 @@
     <t>024-33688527</t>
   </si>
   <si>
-    <t>rex@oetek.com.tw；khuatthuan@oetek.com.tw</t>
+    <t>rex@oetek.com.tw</t>
   </si>
   <si>
     <t>S56</t>
@@ -1330,7 +1330,7 @@
     <t>024-62827888</t>
   </si>
   <si>
-    <t xml:space="preserve">rick.my.chiang@fubon.com  ;  kevinvn.chen@fubon.com </t>
+    <t xml:space="preserve">rick.my.chiang@fubon.com </t>
   </si>
   <si>
     <t>S57</t>
@@ -1378,7 +1378,7 @@
     <t>0220-3824812</t>
   </si>
   <si>
-    <t>kent@luckygrp.com.tw；louis@luckygrp.com.tw</t>
+    <t>kent@luckygrp.com.tw</t>
   </si>
   <si>
     <t>S59</t>
@@ -1474,7 +1474,7 @@
     <t>024-37833955</t>
   </si>
   <si>
-    <t>hanoione.ppm@gmail.com;hochiminh.ppm@gmail.com</t>
+    <t>hanoione.ppm@gmail.com</t>
   </si>
   <si>
     <t>S63</t>
@@ -1498,7 +1498,7 @@
     <t>024-37680808</t>
   </si>
   <si>
-    <t>cclin023@gmail.com; Feilingvn@gmail.com;</t>
+    <t>cclin023@gmail.com</t>
   </si>
   <si>
     <t>S64</t>
@@ -1543,7 +1543,7 @@
     <t>024-3676 1133</t>
   </si>
   <si>
-    <t xml:space="preserve">lkn@kuenling.com.tw；daothuhuyen0986@gmail.com  </t>
+    <t>lkn@kuenling.com.tw</t>
   </si>
   <si>
     <t>S66</t>
@@ -1567,7 +1567,7 @@
     <t xml:space="preserve">024 3831 7995 </t>
   </si>
   <si>
-    <t>cuicui1982@gmail.com; dysu@sfchem.com.tw</t>
+    <t>cuicui1982@gmail.com</t>
   </si>
   <si>
     <t>S67</t>
@@ -1663,7 +1663,7 @@
     <t>0211 2223666</t>
   </si>
   <si>
-    <t>danny@cdstar.com.tw;lt-allen@cdstar.com.tw</t>
+    <t>danny@cdstar.com.tw</t>
   </si>
   <si>
     <t>S71</t>
@@ -1681,7 +1681,7 @@
     <t>024-38760425</t>
   </si>
   <si>
-    <t>luckyeverydayday@gmail.com ; gbcenter.edu@gmail.com</t>
+    <t xml:space="preserve">luckyeverydayday@gmail.com </t>
   </si>
   <si>
     <t>S72</t>
@@ -1762,7 +1762,7 @@
     <t>024-2800201/754</t>
   </si>
   <si>
-    <t>54544@sym.com.tw;micqqq@gmail.com</t>
+    <t>54544@sym.com.tw</t>
   </si>
   <si>
     <t>S76</t>
@@ -1786,7 +1786,7 @@
     <t>0222-3734018</t>
   </si>
   <si>
-    <t>poyang394444@yahoo.com.tw;kimdinhco@gmail.com</t>
+    <t>poyang394444@yahoo.com.tw</t>
   </si>
   <si>
     <t>S77</t>
@@ -1858,7 +1858,7 @@
     <t>024-37951150</t>
   </si>
   <si>
-    <t>hanoi-1@cht.com.tw; jhanke@cht.com.tw;daniellin@cht.com.tw</t>
+    <t>hanoi-1@cht.com.tw</t>
   </si>
   <si>
     <t>S80</t>
@@ -1882,7 +1882,7 @@
     <t>028 73070788</t>
   </si>
   <si>
-    <t>eddiesheu@digiwin.com;justin_chiu@digiwin.com</t>
+    <t>eddiesheu@digiwin.com</t>
   </si>
   <si>
     <t>S81</t>
@@ -1930,7 +1930,7 @@
     <t>0378 066 303</t>
   </si>
   <si>
-    <t>zsy@easyenopto.com;eason@easyenopto.com</t>
+    <t>zsy@easyenopto.com</t>
   </si>
   <si>
     <t>S83</t>
@@ -1951,7 +1951,7 @@
     <t xml:space="preserve">0220 3775888 </t>
   </si>
   <si>
-    <t>Denny_huang@mail.taya.com.tw; genehsu@mail.taya.com.tw</t>
+    <t>Denny_huang@mail.taya.com.tw</t>
   </si>
   <si>
     <t>S84</t>
@@ -1999,7 +1999,7 @@
     <t>024-66848426</t>
   </si>
   <si>
-    <t>tom@acter.com.tw;ray@acter.com.tw</t>
+    <t>tom@acter.com.tw</t>
   </si>
   <si>
     <t>S86</t>
@@ -2023,7 +2023,7 @@
     <t>024-38852888</t>
   </si>
   <si>
-    <t>mars_chen@wwrc.com；heaven_lin@wwrc.com</t>
+    <t>mars_chen@wwrc.com</t>
   </si>
   <si>
     <t>S87</t>
@@ -2068,7 +2068,7 @@
     <t>0222-3856888-20130</t>
   </si>
   <si>
-    <t>terry090769@gmail.com； zhuoxianhong@gmail.com</t>
+    <t>terry090769@gmail.com</t>
   </si>
   <si>
     <t>S89</t>
@@ -2089,7 +2089,7 @@
     <t>詹家榮</t>
   </si>
   <si>
-    <t>hec101@hyec.com.tw; kaidoan@hyec-vn.com</t>
+    <t>hec101@hyec.com.tw</t>
   </si>
   <si>
     <t>S90</t>
@@ -2113,7 +2113,7 @@
     <t>028-38219266</t>
   </si>
   <si>
-    <t>vincentwu1@kpmg.com.vn；briancchen@kpmg.com.vn</t>
+    <t>vincentwu1@kpmg.com.vn</t>
   </si>
   <si>
     <t>S91</t>
@@ -2137,7 +2137,7 @@
     <t>0211-3538568</t>
   </si>
   <si>
-    <t>bettina@dms-vp.com；jerry.chi@dms-vp.com</t>
+    <t>bettina@dms-vp.com</t>
   </si>
   <si>
     <t>S92</t>
@@ -2152,7 +2152,7 @@
     <t>蔡維庭</t>
   </si>
   <si>
-    <t>jason8235@yahoo.com.tw;jml689@hn.vnn.vn</t>
+    <t>jason8235@yahoo.com.tw</t>
   </si>
   <si>
     <t>S93</t>
@@ -2263,7 +2263,7 @@
     <t>024-38738055</t>
   </si>
   <si>
-    <t>jimkuo1970@hotmail.com ; namktaba@gmail.com</t>
+    <t>jimkuo1970@hotmail.com</t>
   </si>
   <si>
     <t>S98</t>
@@ -2320,7 +2320,7 @@
     <t>藍鼎傑</t>
   </si>
   <si>
-    <t>travis@c21capital.vn；fleece@c21capital.vn</t>
+    <t>travis@c21capital.vn</t>
   </si>
   <si>
     <t>S101</t>
@@ -2335,7 +2335,7 @@
     <t>林家嘉</t>
   </si>
   <si>
-    <t>0222 3846881/4</t>
+    <t>0222 38468814</t>
   </si>
   <si>
     <t>chun_chieh5@hotmail.com</t>
@@ -2362,7 +2362,7 @@
     <t>024 66522226</t>
   </si>
   <si>
-    <t>dennis@eup.com.tw;James@eup.net.vn</t>
+    <t>dennis@eup.com.tw</t>
   </si>
   <si>
     <t>S103</t>
@@ -2425,7 +2425,7 @@
     <t>024-38182523</t>
   </si>
   <si>
-    <t>adm@fav.com.vn;tony@fav.com.vn</t>
+    <t>adm@fav.com.vn</t>
   </si>
   <si>
     <t>S106</t>
@@ -2449,7 +2449,7 @@
     <t>024-36461679</t>
   </si>
   <si>
-    <t>info@hwatavina.com, a0903759340@gmail.com</t>
+    <t>info@hwatavina.com</t>
   </si>
   <si>
     <t>S107</t>
@@ -2473,7 +2473,7 @@
     <t>0211-3869329</t>
   </si>
   <si>
-    <t>vnsurcheer@surcheer.com.tw；vn.andy@surcheer.com.tw</t>
+    <t>vnsurcheer@surcheer.com.tw</t>
   </si>
   <si>
     <t>S108</t>
@@ -2749,7 +2749,7 @@
     <t>鄭銘堂</t>
   </si>
   <si>
-    <t>nicole99@fulilong.com、kevinchengx99@gmail.com</t>
+    <t>nicole99@fulilong.com</t>
   </si>
   <si>
     <t>S121</t>
@@ -2791,7 +2791,7 @@
     <t>0320-3555279</t>
   </si>
   <si>
-    <t>pcc22t@pccchem.com.tw ；pcc22u@pccchem.com.tw</t>
+    <t xml:space="preserve">pcc22t@pccchem.com.tw </t>
   </si>
   <si>
     <t>S123</t>
@@ -2815,7 +2815,7 @@
     <t>0222-6253688/602</t>
   </si>
   <si>
-    <t>cw.chen@dragonjet.biz;davidhsieh@dragonjet.biz</t>
+    <t>cw.chen@dragonjet.biz</t>
   </si>
   <si>
     <t>S124</t>
@@ -2863,7 +2863,7 @@
     <t xml:space="preserve">024 39369188 /150 </t>
   </si>
   <si>
-    <t>Delphi_Chiang@vn.msig-asia.com；Thuy_CaoBich@vn.msig-asia.com</t>
+    <t>Delphi_Chiang@vn.msig-asia.com</t>
   </si>
   <si>
     <t>S126</t>
@@ -2887,7 +2887,7 @@
     <t>028 39756888</t>
   </si>
   <si>
-    <t>stanley17168@gmail.com;</t>
+    <t>stanley17168@gmail.com</t>
   </si>
   <si>
     <t>S127</t>
@@ -2911,7 +2911,7 @@
     <t xml:space="preserve">024-32045164  </t>
   </si>
   <si>
-    <t>AllanCheng@yuchens.com；DarrowLin@yuchens.com</t>
+    <t>AllanCheng@yuchens.com</t>
   </si>
   <si>
     <t>S128</t>
@@ -2935,7 +2935,7 @@
     <t>023 78623668</t>
   </si>
   <si>
-    <t>tseng.mart@163.com;edison.lo@hff-group.com</t>
+    <t>tseng.mart@163.com</t>
   </si>
   <si>
     <t>S129</t>
@@ -3055,7 +3055,7 @@
     <t>024 37265233</t>
   </si>
   <si>
-    <t>rose@ubot.com.vn; kenliao@ubot.com.vn</t>
+    <t>rose@ubot.com.vn</t>
   </si>
   <si>
     <t>S134</t>
@@ -3076,7 +3076,7 @@
     <t>賴盈潔</t>
   </si>
   <si>
-    <t>yinlai@deloitte.com ；wchenwei@deloitte.com</t>
+    <t xml:space="preserve">yinlai@deloitte.com </t>
   </si>
   <si>
     <t>S135</t>
@@ -3100,7 +3100,7 @@
     <t>0934 608 222</t>
   </si>
   <si>
-    <t>simon@esgame.vn;gloriachen1212@esgame.vn</t>
+    <t>simon@esgame.vn</t>
   </si>
   <si>
     <t>S136</t>
@@ -3208,10 +3208,10 @@
     <t>游長立</t>
   </si>
   <si>
-    <t>'0251 3560028</t>
-  </si>
-  <si>
-    <t>longli@kingcar.com.tw; p101100@gmail.com</t>
+    <t>0251 3560028</t>
+  </si>
+  <si>
+    <t>longli@kingcar.com.tw</t>
   </si>
   <si>
     <t>S141</t>
@@ -3235,7 +3235,7 @@
     <t>024 62695899</t>
   </si>
   <si>
-    <t>powen919@ms33.hinet; sales02@kilews.com</t>
+    <t>powen919@ms33.hinet</t>
   </si>
   <si>
     <t>S142</t>
@@ -3307,7 +3307,7 @@
     <t>0221-6285588</t>
   </si>
   <si>
-    <t>steven641218@gmail.com；stevenlypcl@gmail.com</t>
+    <t>steven641218@gmail.com</t>
   </si>
   <si>
     <t>S145</t>
@@ -3493,7 +3493,7 @@
     <t>詹征雄</t>
   </si>
   <si>
-    <t>peter@saffroncasa.com；hoai@saffroncasa.com</t>
+    <t>peter@saffroncasa.com</t>
   </si>
   <si>
     <t>S154</t>
@@ -3529,7 +3529,7 @@
     <t>0979 278 244</t>
   </si>
   <si>
-    <t>ktchang@me-ps.com;tjkuo@me-ps.com</t>
+    <t>ktchang@me-ps.com</t>
   </si>
   <si>
     <t>S156</t>
@@ -3574,7 +3574,7 @@
     <t>0229 3762 988</t>
   </si>
   <si>
-    <t>changxinvietnam@gmail.com；libei6699@gmail.com</t>
+    <t>changxinvietnam@gmail.com</t>
   </si>
   <si>
     <t>S158</t>
@@ -3611,7 +3611,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3633,6 +3633,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="新細明體"/>
@@ -3640,8 +3646,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3671,9 +3678,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3694,13 +3708,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -3709,7 +3716,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="新細明體"/>
@@ -3734,14 +3740,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3756,7 +3762,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3784,7 +3790,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3796,7 +3844,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3808,7 +3874,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3820,13 +3922,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3838,37 +3934,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3880,73 +3952,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3958,7 +3964,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4032,16 +4038,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -4080,17 +4101,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4105,30 +4135,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4137,7 +4143,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4146,142 +4152,148 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4290,31 +4302,28 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4637,4388 +4646,5165 @@
   <sheetPr/>
   <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="A160" sqref="A160"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.2"/>
   <cols>
     <col min="2" max="2" width="24.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="26.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="31.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="24.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="22.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="34.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="28.8888888888889" customWidth="1"/>
     <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="11.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="15.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="12.8888888888889" customWidth="1"/>
     <col min="9" max="9" width="15.7777777777778" customWidth="1"/>
     <col min="10" max="10" width="15.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="21.1111111111111" customWidth="1"/>
+    <col min="11" max="11" width="30.5555555555556" customWidth="1"/>
     <col min="12" max="12" width="14.1111111111111" customWidth="1"/>
     <col min="13" max="13" width="15.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row r="1" ht="26" customHeight="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="32.4" spans="1:11">
-      <c r="A2" t="s">
+    <row r="2" ht="32.4" spans="1:13">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" ht="22" customHeight="1" spans="1:11">
-      <c r="A3" t="s">
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" ht="22" customHeight="1" spans="1:13">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" ht="36" customHeight="1" spans="1:11">
-      <c r="A4" t="s">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" ht="36" customHeight="1" spans="1:13">
+      <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K4" t="s">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" ht="32.4" spans="1:11">
-      <c r="A5" t="s">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" ht="32.4" spans="1:13">
+      <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I5" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K5" t="s">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" ht="32.4" spans="1:11">
-      <c r="A6" t="s">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" ht="32.4" spans="1:13">
+      <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="J6" s="1"/>
+      <c r="K6" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" ht="32.4" spans="1:11">
-      <c r="A7" t="s">
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" ht="32.4" spans="1:13">
+      <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="J7" s="1"/>
+      <c r="K7" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" ht="64.8" spans="1:11">
-      <c r="A8" t="s">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" ht="64.8" spans="1:13">
+      <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K8" t="s">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" ht="48.6" spans="1:11">
-      <c r="A9" t="s">
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" ht="48.6" spans="1:13">
+      <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="J9" s="1"/>
+      <c r="K9" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" ht="48.6" spans="1:11">
-      <c r="A10" t="s">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" ht="48.6" spans="1:13">
+      <c r="A10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="J10" s="1"/>
+      <c r="K10" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" ht="32.4" spans="1:11">
-      <c r="A11" t="s">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" ht="32.4" spans="1:13">
+      <c r="A11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K11" t="s">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="12" ht="48.6" spans="1:11">
-      <c r="A12" t="s">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" ht="48.6" spans="1:13">
+      <c r="A12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I12" t="s">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K12" t="s">
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="13" ht="32.4" spans="1:11">
-      <c r="A13" t="s">
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" ht="32.4" spans="1:13">
+      <c r="A13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I13" t="s">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="1"/>
+      <c r="K13" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="14" ht="48.6" spans="1:11">
-      <c r="A14" t="s">
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" ht="48.6" spans="1:13">
+      <c r="A14" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I14" t="s">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K14" t="s">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="15" ht="32.4" spans="1:11">
-      <c r="A15" t="s">
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" ht="32.4" spans="1:13">
+      <c r="A15" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I15" t="s">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="J15" s="1"/>
+      <c r="K15" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="16" ht="32.4" spans="1:11">
-      <c r="A16" t="s">
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" ht="32.4" spans="1:13">
+      <c r="A16" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I16" t="s">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="J16" s="1"/>
+      <c r="K16" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="17" ht="32.4" spans="1:9">
-      <c r="A17" t="s">
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" ht="32.4" spans="1:13">
+      <c r="A17" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I17" t="s">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="18" ht="48.6" spans="1:11">
-      <c r="A18" t="s">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" ht="48.6" spans="1:13">
+      <c r="A18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I18" t="s">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K18" t="s">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="19" ht="32.4" spans="1:11">
-      <c r="A19" t="s">
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" ht="32.4" spans="1:13">
+      <c r="A19" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I19" t="s">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K19" t="s">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="20" ht="48.6" spans="1:11">
-      <c r="A20" t="s">
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" ht="48.6" spans="1:13">
+      <c r="A20" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F20" t="s">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I20" t="s">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="J20" s="1"/>
+      <c r="K20" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="21" ht="48.6" spans="1:11">
-      <c r="A21" t="s">
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" ht="48.6" spans="1:13">
+      <c r="A21" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I21" t="s">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="J21" s="1"/>
+      <c r="K21" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="22" ht="48.6" spans="1:11">
-      <c r="A22" t="s">
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" ht="48.6" spans="1:13">
+      <c r="A22" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="I22" t="s">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="J22" s="1"/>
+      <c r="K22" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="23" ht="32.4" spans="1:11">
-      <c r="A23" t="s">
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" ht="32.4" spans="1:13">
+      <c r="A23" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="I23" t="s">
+      <c r="H23" s="1"/>
+      <c r="I23" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="J23" s="1"/>
+      <c r="K23" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="24" ht="48.6" spans="1:11">
-      <c r="A24" t="s">
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" ht="48.6" spans="1:13">
+      <c r="A24" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="I24" t="s">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="K24" t="s">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="25" ht="48.6" spans="1:11">
-      <c r="A25" t="s">
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" ht="48.6" spans="1:13">
+      <c r="A25" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="26" ht="32.4" spans="1:11">
-      <c r="A26" t="s">
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" ht="32.4" spans="1:13">
+      <c r="A26" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="I26" t="s">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="J26" s="1"/>
+      <c r="K26" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" ht="32.4" spans="1:11">
-      <c r="A27" t="s">
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" ht="32.4" spans="1:13">
+      <c r="A27" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I27" t="s">
+      <c r="H27" s="1"/>
+      <c r="I27" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="K27" t="s">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="28" ht="32.4" spans="1:11">
-      <c r="A28" t="s">
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" ht="32.4" spans="1:13">
+      <c r="A28" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I28" t="s">
+      <c r="H28" s="1"/>
+      <c r="I28" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="J28" s="1"/>
+      <c r="K28" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="29" ht="32.4" spans="1:11">
-      <c r="A29" t="s">
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" ht="32.4" spans="1:13">
+      <c r="A29" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I29" t="s">
+      <c r="H29" s="1"/>
+      <c r="I29" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="J29" s="1"/>
+      <c r="K29" s="3" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="30" ht="32.4" spans="1:11">
-      <c r="A30" t="s">
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" ht="32.4" spans="1:13">
+      <c r="A30" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="K30" t="s">
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="31" ht="48.6" spans="1:11">
-      <c r="A31" t="s">
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" ht="48.6" spans="1:13">
+      <c r="A31" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I31" t="s">
+      <c r="H31" s="1"/>
+      <c r="I31" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="J31" s="1"/>
+      <c r="K31" s="3" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="32" ht="32.4" spans="1:11">
-      <c r="A32" t="s">
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" ht="32.4" spans="1:13">
+      <c r="A32" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I32" t="s">
+      <c r="H32" s="1"/>
+      <c r="I32" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="J32" s="1"/>
+      <c r="K32" s="3" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="33" ht="64.8" spans="1:11">
-      <c r="A33" t="s">
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" ht="48.6" spans="1:13">
+      <c r="A33" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I33" t="s">
+      <c r="H33" s="1"/>
+      <c r="I33" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="J33" s="1"/>
+      <c r="K33" s="4" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="34" ht="48.6" spans="1:11">
-      <c r="A34" t="s">
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" ht="48.6" spans="1:13">
+      <c r="A34" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I34" t="s">
+      <c r="H34" s="1"/>
+      <c r="I34" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="J34" s="1"/>
+      <c r="K34" s="3" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="35" ht="32.4" spans="1:11">
-      <c r="A35" t="s">
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" ht="32.4" spans="1:13">
+      <c r="A35" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I35" t="s">
+      <c r="H35" s="1"/>
+      <c r="I35" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="K35" t="s">
+      <c r="J35" s="1"/>
+      <c r="K35" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="36" ht="32.4" spans="1:11">
-      <c r="A36" t="s">
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" ht="32.4" spans="1:13">
+      <c r="A36" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I36" t="s">
+      <c r="H36" s="1"/>
+      <c r="I36" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="K36" t="s">
+      <c r="J36" s="1"/>
+      <c r="K36" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="37" ht="32.4" spans="1:11">
-      <c r="A37" t="s">
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" ht="32.4" spans="1:13">
+      <c r="A37" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="3" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="38" ht="81" spans="1:11">
-      <c r="A38" t="s">
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" ht="48.6" spans="1:13">
+      <c r="A38" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="I38" t="s">
+      <c r="H38" s="1"/>
+      <c r="I38" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="J38" s="1"/>
+      <c r="K38" s="4" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="39" ht="48.6" spans="1:11">
-      <c r="A39" t="s">
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" ht="32.4" spans="1:13">
+      <c r="A39" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="I39" t="s">
+      <c r="H39" s="1"/>
+      <c r="I39" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="J39" s="1"/>
+      <c r="K39" s="4" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="40" ht="48.6" spans="1:11">
-      <c r="A40" t="s">
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" ht="32.4" spans="1:13">
+      <c r="A40" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="I40" t="s">
+      <c r="H40" s="1"/>
+      <c r="I40" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="J40" s="1"/>
+      <c r="K40" s="4" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="41" ht="32.4" spans="1:11">
-      <c r="A41" t="s">
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" ht="32.4" spans="1:13">
+      <c r="A41" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="I41" t="s">
+      <c r="H41" s="1"/>
+      <c r="I41" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="J41" s="1"/>
+      <c r="K41" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="42" ht="32.4" spans="1:11">
-      <c r="A42" t="s">
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" ht="32.4" spans="1:13">
+      <c r="A42" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C42" t="s">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="3" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="43" ht="32.4" spans="1:11">
-      <c r="A43" t="s">
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" ht="32.4" spans="1:13">
+      <c r="A43" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="K43" t="s">
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="44" ht="32.4" spans="1:11">
-      <c r="A44" t="s">
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" ht="32.4" spans="1:13">
+      <c r="A44" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="C44" s="1"/>
+      <c r="D44" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="F44" t="s">
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="3" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="45" ht="48.6" spans="1:11">
-      <c r="A45" t="s">
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" ht="48.6" spans="1:13">
+      <c r="A45" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="K45" t="s">
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="46" ht="64.8" spans="1:11">
-      <c r="A46" t="s">
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" ht="32.4" spans="1:13">
+      <c r="A46" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I46" t="s">
+      <c r="H46" s="1"/>
+      <c r="I46" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="J46" s="1"/>
+      <c r="K46" s="4" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="47" ht="48.6" spans="1:11">
-      <c r="A47" t="s">
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" ht="32.4" spans="1:13">
+      <c r="A47" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="B47" s="1"/>
+      <c r="C47" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I47" t="s">
+      <c r="H47" s="1"/>
+      <c r="I47" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="J47" s="1"/>
+      <c r="K47" s="4" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="48" ht="32.4" spans="1:11">
-      <c r="A48" t="s">
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" ht="32.4" spans="1:13">
+      <c r="A48" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I48" t="s">
+      <c r="H48" s="1"/>
+      <c r="I48" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="J48" s="1"/>
+      <c r="K48" s="3" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="49" ht="64.8" spans="1:11">
-      <c r="A49" t="s">
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" ht="32.4" spans="1:13">
+      <c r="A49" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I49" t="s">
+      <c r="H49" s="1"/>
+      <c r="I49" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="J49" s="1"/>
+      <c r="K49" s="4" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="50" ht="32.4" spans="1:11">
-      <c r="A50" t="s">
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" ht="32.4" spans="1:13">
+      <c r="A50" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I50" t="s">
+      <c r="H50" s="1"/>
+      <c r="I50" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="J50" s="1"/>
+      <c r="K50" s="3" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="51" ht="48.6" spans="1:11">
-      <c r="A51" t="s">
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" ht="32.4" spans="1:13">
+      <c r="A51" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I51" t="s">
+      <c r="H51" s="1"/>
+      <c r="I51" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="K51" s="1" t="s">
+      <c r="J51" s="1"/>
+      <c r="K51" s="4" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="52" ht="32.4" spans="1:11">
-      <c r="A52" t="s">
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" ht="32.4" spans="1:13">
+      <c r="A52" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I52" t="s">
+      <c r="H52" s="1"/>
+      <c r="I52" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="J52" s="1"/>
+      <c r="K52" s="3" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="53" ht="64.8" spans="1:11">
-      <c r="A53" t="s">
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" ht="48.6" spans="1:13">
+      <c r="A53" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="I53" t="s">
+      <c r="H53" s="1"/>
+      <c r="I53" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="K53" s="1" t="s">
+      <c r="J53" s="1"/>
+      <c r="K53" s="4" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="54" ht="32.4" spans="1:11">
-      <c r="A54" t="s">
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" ht="32.4" spans="1:13">
+      <c r="A54" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I54" t="s">
+      <c r="H54" s="1"/>
+      <c r="I54" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="J54" s="1"/>
+      <c r="K54" s="4" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="55" ht="48.6" spans="1:11">
-      <c r="A55" t="s">
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+    </row>
+    <row r="55" ht="32.4" spans="1:13">
+      <c r="A55" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I55" t="s">
+      <c r="H55" s="1"/>
+      <c r="I55" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="J55" s="1"/>
+      <c r="K55" s="4" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="56" ht="48.6" spans="1:11">
-      <c r="A56" t="s">
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+    </row>
+    <row r="56" ht="32.4" spans="1:13">
+      <c r="A56" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I56" t="s">
+      <c r="H56" s="1"/>
+      <c r="I56" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="J56" s="1"/>
+      <c r="K56" s="4" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="57" ht="64.8" spans="1:11">
-      <c r="A57" t="s">
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+    </row>
+    <row r="57" ht="32.4" spans="1:13">
+      <c r="A57" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I57" t="s">
+      <c r="H57" s="1"/>
+      <c r="I57" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="K57" s="1" t="s">
+      <c r="J57" s="1"/>
+      <c r="K57" s="4" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="58" ht="48.6" spans="1:11">
-      <c r="A58" t="s">
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+    </row>
+    <row r="58" ht="48.6" spans="1:13">
+      <c r="A58" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I58" t="s">
+      <c r="H58" s="1"/>
+      <c r="I58" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="J58" s="1"/>
+      <c r="K58" s="3" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="59" ht="48.6" spans="1:11">
-      <c r="A59" t="s">
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+    </row>
+    <row r="59" ht="48.6" spans="1:13">
+      <c r="A59" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I59" t="s">
+      <c r="H59" s="1"/>
+      <c r="I59" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="J59" s="1"/>
+      <c r="K59" s="4" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="60" ht="32.4" spans="1:11">
-      <c r="A60" t="s">
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+    </row>
+    <row r="60" ht="32.4" spans="1:13">
+      <c r="A60" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="I60" t="s">
+      <c r="H60" s="1"/>
+      <c r="I60" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="J60" s="1"/>
+      <c r="K60" s="3" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="61" ht="48.6" spans="1:11">
-      <c r="A61" t="s">
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+    </row>
+    <row r="61" ht="48.6" spans="1:13">
+      <c r="A61" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I61" t="s">
+      <c r="H61" s="1"/>
+      <c r="I61" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="K61" t="s">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="62" ht="64.8" spans="1:11">
-      <c r="A62" t="s">
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+    </row>
+    <row r="62" ht="64.8" spans="1:13">
+      <c r="A62" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I62" t="s">
+      <c r="H62" s="1"/>
+      <c r="I62" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="K62" t="s">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="63" ht="48.6" spans="1:11">
-      <c r="A63" t="s">
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+    </row>
+    <row r="63" ht="48.6" spans="1:13">
+      <c r="A63" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I63" t="s">
+      <c r="H63" s="1"/>
+      <c r="I63" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="K63" s="1" t="s">
+      <c r="J63" s="1"/>
+      <c r="K63" s="4" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="64" ht="32.4" spans="1:11">
-      <c r="A64" t="s">
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" ht="32.4" spans="1:13">
+      <c r="A64" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I64" t="s">
+      <c r="H64" s="1"/>
+      <c r="I64" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="J64" s="1"/>
+      <c r="K64" s="4" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="65" ht="32.4" spans="1:11">
-      <c r="A65" t="s">
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" ht="32.4" spans="1:13">
+      <c r="A65" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="K65" t="s">
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="66" ht="64.8" spans="1:11">
-      <c r="A66" t="s">
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" ht="48.6" spans="1:13">
+      <c r="A66" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I66" t="s">
+      <c r="H66" s="1"/>
+      <c r="I66" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="K66" s="1" t="s">
+      <c r="J66" s="1"/>
+      <c r="K66" s="4" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="67" ht="48.6" spans="1:11">
-      <c r="A67" t="s">
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" ht="48.6" spans="1:13">
+      <c r="A67" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I67" t="s">
+      <c r="H67" s="1"/>
+      <c r="I67" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="K67" s="1" t="s">
+      <c r="J67" s="1"/>
+      <c r="K67" s="4" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="68" ht="32.4" spans="1:11">
-      <c r="A68" t="s">
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" ht="32.4" spans="1:13">
+      <c r="A68" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I68" t="s">
+      <c r="H68" s="1"/>
+      <c r="I68" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="K68" s="1" t="s">
+      <c r="J68" s="1"/>
+      <c r="K68" s="3" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="69" ht="48.6" spans="1:11">
-      <c r="A69" t="s">
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" ht="48.6" spans="1:13">
+      <c r="A69" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I69" t="s">
+      <c r="H69" s="1"/>
+      <c r="I69" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="K69" t="s">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="70" ht="32.4" spans="1:11">
-      <c r="A70" t="s">
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" ht="32.4" spans="1:13">
+      <c r="A70" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I70" t="s">
+      <c r="H70" s="1"/>
+      <c r="I70" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="K70" s="1" t="s">
+      <c r="J70" s="1"/>
+      <c r="K70" s="3" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="71" ht="33.15" spans="1:11">
-      <c r="A71" t="s">
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" ht="33.15" spans="1:13">
+      <c r="A71" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I71" t="s">
+      <c r="H71" s="1"/>
+      <c r="I71" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="K71" s="1" t="s">
+      <c r="J71" s="1"/>
+      <c r="K71" s="4" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="72" ht="64.8" spans="1:11">
-      <c r="A72" t="s">
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" ht="48.6" spans="1:13">
+      <c r="A72" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I72" t="s">
+      <c r="H72" s="1"/>
+      <c r="I72" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="K72" s="1" t="s">
+      <c r="J72" s="1"/>
+      <c r="K72" s="4" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="73" ht="48.6" spans="1:11">
-      <c r="A73" t="s">
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" ht="48.6" spans="1:13">
+      <c r="A73" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K73" s="1" t="s">
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="3" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="74" ht="48.6" spans="1:11">
-      <c r="A74" t="s">
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" ht="48.6" spans="1:13">
+      <c r="A74" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I74" t="s">
+      <c r="H74" s="1"/>
+      <c r="I74" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="K74" t="s">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="75" ht="48.6" spans="1:11">
-      <c r="A75" t="s">
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" ht="48.6" spans="1:13">
+      <c r="A75" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="C75" s="1"/>
+      <c r="D75" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I75" t="s">
+      <c r="H75" s="1"/>
+      <c r="I75" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="K75" s="1" t="s">
+      <c r="J75" s="1"/>
+      <c r="K75" s="3" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="76" ht="32.4" spans="1:11">
-      <c r="A76" t="s">
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" ht="32.4" spans="1:13">
+      <c r="A76" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I76" t="s">
+      <c r="H76" s="1"/>
+      <c r="I76" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="K76" s="1" t="s">
+      <c r="J76" s="1"/>
+      <c r="K76" s="4" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="77" ht="48.6" spans="1:11">
-      <c r="A77" t="s">
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" ht="48.6" spans="1:13">
+      <c r="A77" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I77" t="s">
+      <c r="H77" s="1"/>
+      <c r="I77" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="K77" s="1" t="s">
+      <c r="J77" s="1"/>
+      <c r="K77" s="4" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="78" ht="48.6" spans="1:11">
-      <c r="A78" t="s">
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" ht="48.6" spans="1:13">
+      <c r="A78" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I78" t="s">
+      <c r="H78" s="1"/>
+      <c r="I78" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="K78" s="1" t="s">
+      <c r="J78" s="1"/>
+      <c r="K78" s="3" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="79" ht="48.6" spans="1:11">
-      <c r="A79" t="s">
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+    </row>
+    <row r="79" ht="48.6" spans="1:13">
+      <c r="A79" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I79" t="s">
+      <c r="H79" s="1"/>
+      <c r="I79" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="K79" s="1" t="s">
+      <c r="J79" s="1"/>
+      <c r="K79" s="3" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="80" ht="48.6" spans="1:11">
-      <c r="A80" t="s">
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+    </row>
+    <row r="80" ht="48.6" spans="1:13">
+      <c r="A80" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I80" t="s">
+      <c r="H80" s="1"/>
+      <c r="I80" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="K80" s="1" t="s">
+      <c r="J80" s="1"/>
+      <c r="K80" s="4" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="81" ht="48.6" spans="1:11">
-      <c r="A81" t="s">
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+    </row>
+    <row r="81" ht="48.6" spans="1:13">
+      <c r="A81" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I81" t="s">
+      <c r="H81" s="1"/>
+      <c r="I81" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="J81" s="1"/>
+      <c r="K81" s="4" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="82" ht="48.6" spans="1:11">
-      <c r="A82" t="s">
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+    </row>
+    <row r="82" ht="48.6" spans="1:13">
+      <c r="A82" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I82" t="s">
+      <c r="H82" s="1"/>
+      <c r="I82" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="K82" t="s">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="83" ht="48.6" spans="1:11">
-      <c r="A83" t="s">
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+    </row>
+    <row r="83" ht="48.6" spans="1:13">
+      <c r="A83" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I83" t="s">
+      <c r="H83" s="1"/>
+      <c r="I83" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="K83" s="1" t="s">
+      <c r="J83" s="1"/>
+      <c r="K83" s="4" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="84" ht="64.8" spans="1:11">
-      <c r="A84" t="s">
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+    </row>
+    <row r="84" ht="48.6" spans="1:13">
+      <c r="A84" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="F84" t="s">
+      <c r="E84" s="1"/>
+      <c r="F84" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I84" t="s">
+      <c r="H84" s="1"/>
+      <c r="I84" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="K84" s="1" t="s">
+      <c r="J84" s="1"/>
+      <c r="K84" s="4" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="85" ht="32.4" spans="1:11">
-      <c r="A85" t="s">
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+    </row>
+    <row r="85" ht="32.4" spans="1:13">
+      <c r="A85" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I85" t="s">
+      <c r="H85" s="1"/>
+      <c r="I85" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="K85" s="1" t="s">
+      <c r="J85" s="1"/>
+      <c r="K85" s="3" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="86" ht="48.6" spans="1:11">
-      <c r="A86" t="s">
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" ht="48.6" spans="1:13">
+      <c r="A86" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I86" t="s">
+      <c r="H86" s="1"/>
+      <c r="I86" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="K86" s="1" t="s">
+      <c r="J86" s="1"/>
+      <c r="K86" s="4" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="87" ht="48.6" spans="1:11">
-      <c r="A87" t="s">
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" ht="32.4" spans="1:13">
+      <c r="A87" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I87" t="s">
+      <c r="H87" s="1"/>
+      <c r="I87" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="K87" s="1" t="s">
+      <c r="J87" s="1"/>
+      <c r="K87" s="4" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="88" ht="48.6" spans="1:11">
-      <c r="A88" t="s">
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+    </row>
+    <row r="88" ht="48.6" spans="1:13">
+      <c r="A88" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="I88" s="7" t="s">
+      <c r="H88" s="1"/>
+      <c r="I88" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="K88" t="s">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="89" ht="64.8" spans="1:11">
-      <c r="A89" t="s">
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+    </row>
+    <row r="89" ht="48.6" spans="1:13">
+      <c r="A89" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="H89" s="1"/>
+      <c r="I89" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="K89" s="1" t="s">
+      <c r="J89" s="1"/>
+      <c r="K89" s="4" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="90" ht="48.6" spans="1:11">
-      <c r="A90" t="s">
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+    </row>
+    <row r="90" ht="48.6" spans="1:13">
+      <c r="A90" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="K90" s="1" t="s">
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="4" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="91" ht="48.6" spans="1:11">
-      <c r="A91" t="s">
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+    </row>
+    <row r="91" ht="48.6" spans="1:13">
+      <c r="A91" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I91" t="s">
+      <c r="H91" s="1"/>
+      <c r="I91" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="1"/>
+      <c r="K91" s="4" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="92" ht="48.6" spans="1:11">
-      <c r="A92" t="s">
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+    </row>
+    <row r="92" ht="48.6" spans="1:13">
+      <c r="A92" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I92" t="s">
+      <c r="H92" s="1"/>
+      <c r="I92" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="K92" s="1" t="s">
+      <c r="J92" s="1"/>
+      <c r="K92" s="4" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="93" ht="48.6" spans="1:11">
-      <c r="A93" t="s">
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+    </row>
+    <row r="93" ht="48.6" spans="1:13">
+      <c r="A93" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K93" s="1" t="s">
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="4" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="94" ht="48.6" spans="1:11">
-      <c r="A94" t="s">
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+    </row>
+    <row r="94" ht="48.6" spans="1:13">
+      <c r="A94" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="C94" t="s">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I94" t="s">
+      <c r="H94" s="1"/>
+      <c r="I94" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="K94" t="s">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="95" ht="48.6" spans="1:11">
-      <c r="A95" t="s">
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+    </row>
+    <row r="95" ht="48.6" spans="1:13">
+      <c r="A95" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I95" t="s">
+      <c r="H95" s="1"/>
+      <c r="I95" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="K95" t="s">
+      <c r="J95" s="1"/>
+      <c r="K95" s="1" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="96" ht="32.4" spans="1:11">
-      <c r="A96" t="s">
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+    </row>
+    <row r="96" ht="32.4" spans="1:13">
+      <c r="A96" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I96" t="s">
+      <c r="H96" s="1"/>
+      <c r="I96" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="K96" t="s">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="97" ht="32.4" spans="1:11">
-      <c r="A97" t="s">
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+    </row>
+    <row r="97" ht="32.4" spans="1:13">
+      <c r="A97" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I97" t="s">
+      <c r="H97" s="1"/>
+      <c r="I97" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="K97" s="1" t="s">
+      <c r="J97" s="1"/>
+      <c r="K97" s="3" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="98" ht="48.6" spans="1:11">
-      <c r="A98" t="s">
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+    </row>
+    <row r="98" ht="32.4" spans="1:13">
+      <c r="A98" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I98" t="s">
+      <c r="H98" s="1"/>
+      <c r="I98" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="K98" s="1" t="s">
+      <c r="J98" s="1"/>
+      <c r="K98" s="4" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="99" ht="48.6" spans="1:11">
-      <c r="A99" t="s">
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+    </row>
+    <row r="99" ht="48.6" spans="1:13">
+      <c r="A99" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="F99" t="s">
+      <c r="E99" s="1"/>
+      <c r="F99" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I99" t="s">
+      <c r="H99" s="1"/>
+      <c r="I99" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="K99" t="s">
+      <c r="J99" s="1"/>
+      <c r="K99" s="1" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="100" ht="48.6" spans="1:11">
-      <c r="A100" t="s">
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" ht="48.6" spans="1:13">
+      <c r="A100" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I100" t="s">
+      <c r="H100" s="1"/>
+      <c r="I100" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="K100" t="s">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="101" ht="32.4" spans="1:11">
-      <c r="A101" t="s">
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" ht="32.4" spans="1:13">
+      <c r="A101" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="B101" s="1"/>
+      <c r="C101" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="K101" s="1" t="s">
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="4" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="102" ht="32.4" spans="1:11">
-      <c r="A102" t="s">
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" ht="32.4" spans="1:13">
+      <c r="A102" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I102" t="s">
+      <c r="H102" s="1"/>
+      <c r="I102" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="K102" s="1" t="s">
+      <c r="J102" s="1"/>
+      <c r="K102" s="3" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="103" ht="32.4" spans="1:11">
-      <c r="A103" t="s">
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+    </row>
+    <row r="103" ht="32.4" spans="1:13">
+      <c r="A103" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I103" t="s">
+      <c r="H103" s="1"/>
+      <c r="I103" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="K103" s="1" t="s">
+      <c r="J103" s="1"/>
+      <c r="K103" s="4" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="104" ht="32.4" spans="1:11">
-      <c r="A104" t="s">
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+    </row>
+    <row r="104" ht="32.4" spans="1:13">
+      <c r="A104" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I104" t="s">
+      <c r="H104" s="1"/>
+      <c r="I104" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="K104" s="1" t="s">
+      <c r="J104" s="1"/>
+      <c r="K104" s="3" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="105" ht="32.4" spans="1:11">
-      <c r="A105" t="s">
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+    </row>
+    <row r="105" ht="32.4" spans="1:13">
+      <c r="A105" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="K105" s="1" t="s">
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="3" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="106" ht="32.4" spans="1:11">
-      <c r="A106" t="s">
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+    </row>
+    <row r="106" ht="32.4" spans="1:13">
+      <c r="A106" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I106" t="s">
+      <c r="H106" s="1"/>
+      <c r="I106" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="K106" s="1" t="s">
+      <c r="J106" s="1"/>
+      <c r="K106" s="4" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="107" ht="48.6" spans="1:11">
-      <c r="A107" t="s">
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+    </row>
+    <row r="107" ht="32.4" spans="1:13">
+      <c r="A107" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E107" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I107" t="s">
+      <c r="H107" s="1"/>
+      <c r="I107" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="K107" s="1" t="s">
+      <c r="J107" s="1"/>
+      <c r="K107" s="4" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="108" ht="45" spans="1:11">
-      <c r="A108" t="s">
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+    </row>
+    <row r="108" ht="32.4" spans="1:13">
+      <c r="A108" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I108" t="s">
+      <c r="H108" s="1"/>
+      <c r="I108" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="K108" s="2" t="s">
+      <c r="J108" s="1"/>
+      <c r="K108" s="4" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="109" ht="32.4" spans="1:11">
-      <c r="A109" t="s">
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+    </row>
+    <row r="109" ht="32.4" spans="1:13">
+      <c r="A109" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E109" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I109" t="s">
+      <c r="H109" s="1"/>
+      <c r="I109" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="K109" s="1" t="s">
+      <c r="J109" s="1"/>
+      <c r="K109" s="3" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="110" ht="33.15" spans="1:11">
-      <c r="A110" t="s">
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+    </row>
+    <row r="110" ht="33.15" spans="1:13">
+      <c r="A110" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E110" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I110" t="s">
+      <c r="H110" s="1"/>
+      <c r="I110" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="K110" s="8" t="s">
+      <c r="J110" s="1"/>
+      <c r="K110" s="10" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="111" ht="32.4" spans="1:11">
-      <c r="A111" t="s">
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+    </row>
+    <row r="111" ht="32.4" spans="1:13">
+      <c r="A111" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E111" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="F111" s="5" t="s">
+      <c r="F111" s="7" t="s">
         <v>839</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K111" t="s">
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="112" ht="32.4" spans="1:11">
-      <c r="A112" t="s">
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+    </row>
+    <row r="112" ht="32.4" spans="1:13">
+      <c r="A112" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E112" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="K112" s="1" t="s">
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="3" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="113" ht="48.6" spans="1:11">
-      <c r="A113" t="s">
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+    </row>
+    <row r="113" ht="48.6" spans="1:13">
+      <c r="A113" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="I113" t="s">
+      <c r="H113" s="1"/>
+      <c r="I113" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="K113" t="s">
+      <c r="J113" s="1"/>
+      <c r="K113" s="1" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="114" ht="32.4" spans="1:11">
-      <c r="A114" t="s">
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+    </row>
+    <row r="114" ht="32.4" spans="1:13">
+      <c r="A114" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="F114" t="s">
+      <c r="E114" s="1"/>
+      <c r="F114" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="I114" t="s">
+      <c r="H114" s="1"/>
+      <c r="I114" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="K114" t="s">
+      <c r="J114" s="1"/>
+      <c r="K114" s="1" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="115" ht="48.6" spans="1:11">
-      <c r="A115" t="s">
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+    </row>
+    <row r="115" ht="48.6" spans="1:13">
+      <c r="A115" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E115" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="K115" t="s">
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="116" ht="32.4" spans="1:11">
-      <c r="A116" t="s">
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+    </row>
+    <row r="116" ht="32.4" spans="1:13">
+      <c r="A116" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E116" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="I116" t="s">
+      <c r="H116" s="1"/>
+      <c r="I116" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="K116" s="8" t="s">
+      <c r="J116" s="1"/>
+      <c r="K116" s="10" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="117" ht="32.4" spans="1:11">
-      <c r="A117" t="s">
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+    </row>
+    <row r="117" ht="32.4" spans="1:13">
+      <c r="A117" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="F117" t="s">
+      <c r="E117" s="1"/>
+      <c r="F117" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="I117" t="s">
+      <c r="H117" s="1"/>
+      <c r="I117" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="K117" s="1" t="s">
+      <c r="J117" s="1"/>
+      <c r="K117" s="3" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="118" ht="32.4" spans="1:11">
-      <c r="A118" t="s">
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+    </row>
+    <row r="118" ht="32.4" spans="1:13">
+      <c r="A118" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="C118" t="s">
+      <c r="B118" s="1"/>
+      <c r="C118" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E118" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="K118" t="s">
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="119" ht="64.8" spans="1:11">
-      <c r="A119" t="s">
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+    </row>
+    <row r="119" ht="64.8" spans="1:13">
+      <c r="A119" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E119" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="I119" t="s">
+      <c r="H119" s="1"/>
+      <c r="I119" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="K119" s="1" t="s">
+      <c r="J119" s="1"/>
+      <c r="K119" s="3" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="120" ht="48.6" spans="1:11">
-      <c r="A120" t="s">
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+    </row>
+    <row r="120" ht="48.6" spans="1:13">
+      <c r="A120" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="E120" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K120" t="s">
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="121" ht="64.8" spans="1:11">
-      <c r="A121" t="s">
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+    </row>
+    <row r="121" ht="48.6" spans="1:13">
+      <c r="A121" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="E121" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="K121" s="1" t="s">
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="4" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="122" ht="48.6" spans="1:11">
-      <c r="A122" t="s">
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+    </row>
+    <row r="122" ht="48.6" spans="1:13">
+      <c r="A122" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="E122" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I122" t="s">
+      <c r="H122" s="1"/>
+      <c r="I122" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="K122" s="1" t="s">
+      <c r="J122" s="1"/>
+      <c r="K122" s="3" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="123" ht="64.8" spans="1:11">
-      <c r="A123" t="s">
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+    </row>
+    <row r="123" ht="48.6" spans="1:13">
+      <c r="A123" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="E123" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I123" t="s">
+      <c r="H123" s="1"/>
+      <c r="I123" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="K123" s="1" t="s">
+      <c r="J123" s="1"/>
+      <c r="K123" s="4" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="124" ht="49.35" spans="1:11">
-      <c r="A124" t="s">
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+    </row>
+    <row r="124" ht="32.4" spans="1:13">
+      <c r="A124" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="3" t="s">
         <v>927</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" s="3" t="s">
         <v>929</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="E124" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I124" t="s">
+      <c r="H124" s="1"/>
+      <c r="I124" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="K124" s="1" t="s">
+      <c r="J124" s="1"/>
+      <c r="K124" s="4" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="125" ht="48.6" spans="1:11">
-      <c r="A125" t="s">
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+    </row>
+    <row r="125" ht="48.6" spans="1:13">
+      <c r="A125" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="E125" s="6" t="s">
+      <c r="E125" s="8" t="s">
         <v>938</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I125" t="s">
+      <c r="H125" s="1"/>
+      <c r="I125" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="K125" s="1" t="s">
+      <c r="J125" s="1"/>
+      <c r="K125" s="3" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="126" ht="64.8" spans="1:11">
-      <c r="A126" t="s">
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+    </row>
+    <row r="126" ht="48.6" spans="1:13">
+      <c r="A126" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="3" t="s">
         <v>945</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E126" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I126" s="1" t="s">
+      <c r="H126" s="1"/>
+      <c r="I126" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="K126" s="1" t="s">
+      <c r="J126" s="1"/>
+      <c r="K126" s="4" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="127" ht="48.6" spans="1:11">
-      <c r="A127" t="s">
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+    </row>
+    <row r="127" ht="48.6" spans="1:13">
+      <c r="A127" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="3" t="s">
         <v>952</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="E127" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I127" t="s">
+      <c r="H127" s="1"/>
+      <c r="I127" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="K127" s="1" t="s">
+      <c r="J127" s="1"/>
+      <c r="K127" s="4" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="128" ht="64.8" spans="1:11">
-      <c r="A128" t="s">
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+    </row>
+    <row r="128" ht="48.6" spans="1:13">
+      <c r="A128" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="E128" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I128" t="s">
+      <c r="H128" s="1"/>
+      <c r="I128" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="K128" s="1" t="s">
+      <c r="J128" s="1"/>
+      <c r="K128" s="4" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="129" ht="32.4" spans="1:11">
-      <c r="A129" t="s">
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+    </row>
+    <row r="129" ht="32.4" spans="1:13">
+      <c r="A129" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E129" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I129" t="s">
+      <c r="H129" s="1"/>
+      <c r="I129" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="K129" s="1" t="s">
+      <c r="J129" s="1"/>
+      <c r="K129" s="4" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="130" ht="32.4" spans="1:11">
-      <c r="A130" t="s">
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+    </row>
+    <row r="130" ht="48.6" spans="1:13">
+      <c r="A130" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="3" t="s">
         <v>976</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="E130" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I130" t="s">
+      <c r="H130" s="1"/>
+      <c r="I130" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="K130" t="s">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="131" ht="64.8" spans="1:11">
-      <c r="A131" t="s">
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+    </row>
+    <row r="131" ht="64.8" spans="1:13">
+      <c r="A131" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="3" t="s">
         <v>983</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="3" t="s">
         <v>984</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="E131" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I131" t="s">
+      <c r="H131" s="1"/>
+      <c r="I131" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="K131" s="1" t="s">
+      <c r="J131" s="1"/>
+      <c r="K131" s="3" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="132" ht="32.4" spans="1:11">
-      <c r="A132" t="s">
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+    </row>
+    <row r="132" ht="32.4" spans="1:13">
+      <c r="A132" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" s="3" t="s">
         <v>993</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="E132" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I132" t="s">
+      <c r="H132" s="1"/>
+      <c r="I132" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="K132" t="s">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="133" ht="32.4" spans="1:11">
-      <c r="A133" t="s">
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+    </row>
+    <row r="133" ht="32.4" spans="1:13">
+      <c r="A133" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="E133" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I133" t="s">
+      <c r="H133" s="1"/>
+      <c r="I133" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="K133" t="s">
+      <c r="J133" s="1"/>
+      <c r="K133" s="1" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="134" ht="48.6" spans="1:11">
-      <c r="A134" t="s">
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+    </row>
+    <row r="134" ht="48.6" spans="1:13">
+      <c r="A134" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="E134" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I134" t="s">
+      <c r="H134" s="1"/>
+      <c r="I134" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="K134" s="1" t="s">
+      <c r="J134" s="1"/>
+      <c r="K134" s="4" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="135" ht="48.6" spans="1:11">
-      <c r="A135" t="s">
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+    </row>
+    <row r="135" ht="48.6" spans="1:13">
+      <c r="A135" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="E135" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="K135" s="1" t="s">
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="4" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="136" ht="48.6" spans="1:11">
-      <c r="A136" t="s">
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+    </row>
+    <row r="136" ht="48.6" spans="1:13">
+      <c r="A136" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="3" t="s">
         <v>1022</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" s="3" t="s">
         <v>1024</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="E136" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I136" t="s">
+      <c r="H136" s="1"/>
+      <c r="I136" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="K136" s="1" t="s">
+      <c r="J136" s="1"/>
+      <c r="K136" s="4" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="137" ht="48.6" spans="1:11">
-      <c r="A137" t="s">
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+    </row>
+    <row r="137" ht="48.6" spans="1:13">
+      <c r="A137" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="E137" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G137" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K137" s="9" t="s">
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="3" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="138" ht="48.6" spans="1:11">
-      <c r="A138" t="s">
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+    </row>
+    <row r="138" ht="48.6" spans="1:13">
+      <c r="A138" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D138" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="E138" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G138" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I138" t="s">
+      <c r="H138" s="1"/>
+      <c r="I138" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="K138" s="1" t="s">
+      <c r="J138" s="1"/>
+      <c r="K138" s="3" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="139" ht="48.6" spans="1:11">
-      <c r="A139" t="s">
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+    </row>
+    <row r="139" ht="48.6" spans="1:13">
+      <c r="A139" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="3" t="s">
         <v>1043</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="3" t="s">
         <v>1044</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D139" s="3" t="s">
         <v>1045</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="E139" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G139" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I139" s="10" t="s">
+      <c r="H139" s="1"/>
+      <c r="I139" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="K139" t="s">
+      <c r="J139" s="1"/>
+      <c r="K139" s="1" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="140" ht="48.6" spans="1:11">
-      <c r="A140" t="s">
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+    </row>
+    <row r="140" ht="48.6" spans="1:13">
+      <c r="A140" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="3" t="s">
         <v>1051</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D140" s="3" t="s">
         <v>1053</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="E140" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I140" s="10" t="s">
+      <c r="H140" s="1"/>
+      <c r="I140" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="K140" s="1" t="s">
+      <c r="J140" s="1"/>
+      <c r="K140" s="3" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="141" ht="48.6" spans="1:11">
-      <c r="A141" t="s">
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+    </row>
+    <row r="141" ht="48.6" spans="1:13">
+      <c r="A141" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D141" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="E141" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I141" s="10" t="s">
+      <c r="H141" s="1"/>
+      <c r="I141" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="K141" s="1" t="s">
+      <c r="J141" s="1"/>
+      <c r="K141" s="4" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="142" ht="32.4" spans="1:11">
-      <c r="A142" t="s">
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+    </row>
+    <row r="142" ht="32.4" spans="1:13">
+      <c r="A142" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D142" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="E142" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I142" s="10" t="s">
+      <c r="H142" s="1"/>
+      <c r="I142" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="K142" s="1" t="s">
+      <c r="J142" s="1"/>
+      <c r="K142" s="4" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="143" ht="48.6" spans="1:11">
-      <c r="A143" t="s">
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+    </row>
+    <row r="143" ht="48.6" spans="1:13">
+      <c r="A143" s="1" t="s">
         <v>1074</v>
       </c>
       <c r="B143" s="11" t="s">
         <v>1075</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D143" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="E143" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G143" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I143" s="10" t="s">
+      <c r="H143" s="1"/>
+      <c r="I143" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="K143" s="1" t="s">
+      <c r="J143" s="1"/>
+      <c r="K143" s="3" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="144" ht="48.6" spans="1:11">
-      <c r="A144" t="s">
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+    </row>
+    <row r="144" ht="48.6" spans="1:13">
+      <c r="A144" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" s="3" t="s">
         <v>1085</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="E144" s="3" t="s">
         <v>1086</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I144" s="10" t="s">
+      <c r="H144" s="1"/>
+      <c r="I144" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="K144" s="1" t="s">
+      <c r="J144" s="1"/>
+      <c r="K144" s="3" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="145" ht="48.6" spans="1:11">
-      <c r="A145" t="s">
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+    </row>
+    <row r="145" ht="48.6" spans="1:13">
+      <c r="A145" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D145" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="E145" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F145" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G145" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I145" s="10" t="s">
+      <c r="H145" s="1"/>
+      <c r="I145" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="K145" s="1" t="s">
+      <c r="J145" s="1"/>
+      <c r="K145" s="4" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="146" ht="48.6" spans="1:11">
-      <c r="A146" t="s">
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+    </row>
+    <row r="146" ht="48.6" spans="1:13">
+      <c r="A146" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D146" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="E146" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G146" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I146" t="s">
+      <c r="H146" s="1"/>
+      <c r="I146" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="K146" s="1" t="s">
+      <c r="J146" s="1"/>
+      <c r="K146" s="3" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="147" ht="32.4" spans="1:11">
-      <c r="A147" t="s">
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+    </row>
+    <row r="147" ht="32.4" spans="1:13">
+      <c r="A147" s="1" t="s">
         <v>1106</v>
       </c>
       <c r="B147" s="11" t="s">
         <v>1107</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D147" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="E147" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F147" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G147" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I147" t="s">
+      <c r="H147" s="1"/>
+      <c r="I147" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="K147" t="s">
+      <c r="J147" s="1"/>
+      <c r="K147" s="1" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="148" ht="48.6" spans="1:11">
-      <c r="A148" t="s">
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+    </row>
+    <row r="148" ht="48.6" spans="1:13">
+      <c r="A148" s="1" t="s">
         <v>1114</v>
       </c>
       <c r="B148" s="11" t="s">
         <v>1115</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="C148" s="1"/>
+      <c r="D148" s="3" t="s">
         <v>1116</v>
       </c>
-      <c r="E148" s="1" t="s">
+      <c r="E148" s="3" t="s">
         <v>1117</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G148" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I148" t="s">
+      <c r="H148" s="1"/>
+      <c r="I148" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="K148" t="s">
+      <c r="J148" s="1"/>
+      <c r="K148" s="1" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="149" ht="32.4" spans="1:11">
-      <c r="A149" t="s">
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+    </row>
+    <row r="149" ht="32.4" spans="1:13">
+      <c r="A149" s="1" t="s">
         <v>1121</v>
       </c>
       <c r="B149" s="11" t="s">
         <v>1122</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" s="3" t="s">
         <v>1124</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="E149" s="3" t="s">
         <v>1125</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G149" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="K149" t="s">
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="150" ht="32.4" spans="1:7">
-      <c r="A150" t="s">
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+    </row>
+    <row r="150" ht="32.4" spans="1:13">
+      <c r="A150" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="C150" t="s">
+      <c r="B150" s="1"/>
+      <c r="C150" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="3" t="s">
         <v>1130</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E150" s="3" t="s">
         <v>1131</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F150" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="G150" t="s">
+      <c r="G150" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="151" ht="48.6" spans="1:11">
-      <c r="A151" t="s">
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+    </row>
+    <row r="151" ht="48.6" spans="1:13">
+      <c r="A151" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="C151" t="s">
+      <c r="B151" s="1"/>
+      <c r="C151" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="E151" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F151" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="I151" t="s">
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1" t="s">
         <v>1138</v>
       </c>
+      <c r="J151" s="1"/>
       <c r="K151" s="10" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="152" ht="32.4" spans="1:11">
-      <c r="A152" t="s">
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+    </row>
+    <row r="152" ht="32.4" spans="1:13">
+      <c r="A152" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="B152" s="10" t="s">
+      <c r="B152" s="12" t="s">
         <v>1141</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="C152" s="1"/>
+      <c r="D152" s="3" t="s">
         <v>1142</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="E152" s="3" t="s">
         <v>1143</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F152" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G152" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K152" s="1" t="s">
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="3" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="153" ht="48.6" spans="1:11">
-      <c r="A153" t="s">
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+    </row>
+    <row r="153" ht="48.6" spans="1:13">
+      <c r="A153" s="1" t="s">
         <v>1146</v>
       </c>
       <c r="B153" s="11" t="s">
         <v>1147</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" s="3" t="s">
         <v>1149</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="E153" s="3" t="s">
         <v>1150</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F153" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="G153" t="s">
+      <c r="G153" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I153" t="s">
+      <c r="H153" s="1"/>
+      <c r="I153" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="K153" s="1" t="s">
+      <c r="J153" s="1"/>
+      <c r="K153" s="3" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="154" ht="64.8" spans="1:11">
-      <c r="A154" t="s">
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+    </row>
+    <row r="154" ht="64.8" spans="1:13">
+      <c r="A154" s="1" t="s">
         <v>1154</v>
       </c>
       <c r="B154" s="11" t="s">
         <v>1155</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="C154" s="1"/>
+      <c r="D154" s="3" t="s">
         <v>1156</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="E154" s="3" t="s">
         <v>1157</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F154" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G154" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K154" s="1" t="s">
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="4" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="155" spans="1:11">
-      <c r="A155" t="s">
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="A155" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="C155" s="10" t="s">
+      <c r="B155" s="1"/>
+      <c r="C155" s="12" t="s">
         <v>1161</v>
       </c>
-      <c r="F155" t="s">
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="G155" t="s">
+      <c r="G155" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K155" t="s">
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="156" ht="48.6" spans="1:11">
-      <c r="A156" t="s">
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+    </row>
+    <row r="156" ht="48.6" spans="1:13">
+      <c r="A156" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="3" t="s">
         <v>1165</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D156" s="3" t="s">
         <v>1167</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E156" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F156" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G156" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I156" s="10" t="s">
+      <c r="H156" s="1"/>
+      <c r="I156" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="K156" s="1" t="s">
+      <c r="J156" s="1"/>
+      <c r="K156" s="4" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="157" ht="32.4" spans="1:11">
-      <c r="A157" t="s">
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+    </row>
+    <row r="157" ht="32.4" spans="1:13">
+      <c r="A157" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="C157" s="10" t="s">
+      <c r="B157" s="1"/>
+      <c r="C157" s="12" t="s">
         <v>1173</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" s="3" t="s">
         <v>1174</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E157" s="3" t="s">
         <v>1175</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G157" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I157" t="s">
+      <c r="H157" s="1"/>
+      <c r="I157" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="K157" s="11" t="s">
+      <c r="J157" s="1"/>
+      <c r="K157" s="4" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="158" ht="48.6" spans="1:11">
-      <c r="A158" t="s">
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+    </row>
+    <row r="158" ht="48.6" spans="1:13">
+      <c r="A158" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="3" t="s">
         <v>1180</v>
       </c>
-      <c r="C158" s="11" t="s">
+      <c r="C158" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D158" s="3" t="s">
         <v>1182</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E158" s="3" t="s">
         <v>1183</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F158" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G158" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I158" t="s">
+      <c r="H158" s="1"/>
+      <c r="I158" s="1" t="s">
         <v>1185</v>
       </c>
-      <c r="K158" s="11" t="s">
+      <c r="J158" s="1"/>
+      <c r="K158" s="4" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="159" ht="48.6" spans="1:11">
-      <c r="A159" t="s">
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+    </row>
+    <row r="159" ht="48.6" spans="1:13">
+      <c r="A159" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" s="3" t="s">
         <v>1188</v>
       </c>
-      <c r="C159" s="11" t="s">
+      <c r="C159" s="3" t="s">
         <v>1189</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D159" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E159" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F159" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="G159" t="s">
+      <c r="G159" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I159" s="10" t="s">
+      <c r="H159" s="1"/>
+      <c r="I159" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="K159" s="11" t="s">
+      <c r="J159" s="1"/>
+      <c r="K159" s="4" t="s">
         <v>1194</v>
       </c>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K13" r:id="rId1" display="jml689@hn.vnn.vn; jml166@hn.vnn.vn" tooltip="mailto:jml689@hn.vnn.vn;jml166@hn.vnn.vn"/>
-    <hyperlink ref="K91" r:id="rId2" display="vincentwu1@kpmg.com.vn；briancchen@kpmg.com.vn"/>
-    <hyperlink ref="K108" r:id="rId3" display="vnsurcheer@surcheer.com.tw；vn.andy@surcheer.com.tw"/>
+    <hyperlink ref="K13" r:id="rId1" display="jml689@hn.vnn.vn" tooltip="mailto:jml689@hn.vnn.vn"/>
+    <hyperlink ref="K91" r:id="rId2" display="vincentwu1@kpmg.com.vn" tooltip="mailto:vincentwu1@kpmg.com.vn"/>
+    <hyperlink ref="K108" r:id="rId3" display="vnsurcheer@surcheer.com.tw" tooltip="mailto:vnsurcheer@surcheer.com.tw"/>
     <hyperlink ref="K110" r:id="rId4" display="SVN@siruba.com"/>
     <hyperlink ref="K116" r:id="rId5" display="jbchu@skl.com.tw"/>
+    <hyperlink ref="K33" r:id="rId6" display="cy.chang@nakagawakagaku.com.vn"/>
+    <hyperlink ref="K3" r:id="rId7" display="laifucius@gmail.com"/>
+    <hyperlink ref="K38" r:id="rId8" display="th-kuo@vedaninternational.com"/>
+    <hyperlink ref="K39" r:id="rId9" display="shunfarland@gmail.com"/>
+    <hyperlink ref="K40" r:id="rId9" display="shunfarland@gmail.com"/>
+    <hyperlink ref="K46" r:id="rId10" display="akilasu0326@gmail.com "/>
+    <hyperlink ref="K47" r:id="rId11" display="calvin.liaw@fubon.com"/>
+    <hyperlink ref="K49" r:id="rId12" display="elton.cheng@ctbcbank.com"/>
+    <hyperlink ref="K51" r:id="rId13" display="i82096@firstbank.com.tw "/>
+    <hyperlink ref="K53" r:id="rId14" display="oscarchen@evaair.com"/>
+    <hyperlink ref="K54" r:id="rId15" display="justin.kao@ctci.com"/>
+    <hyperlink ref="K55" r:id="rId16" display="caztaiyu@hotmail.com "/>
+    <hyperlink ref="K56" r:id="rId17" display="rex@oetek.com.tw"/>
+    <hyperlink ref="K57" r:id="rId18" display="rick.my.chiang@fubon.com "/>
+    <hyperlink ref="K59" r:id="rId19" display="kent@luckygrp.com.tw"/>
+    <hyperlink ref="K63" r:id="rId20" display="hanoione.ppm@gmail.com"/>
+    <hyperlink ref="K64" r:id="rId21" display="cclin023@gmail.com"/>
+    <hyperlink ref="K66" r:id="rId22" display="lkn@kuenling.com.tw"/>
+    <hyperlink ref="K67" r:id="rId23" display="cuicui1982@gmail.com"/>
+    <hyperlink ref="K71" r:id="rId24" display="danny@cdstar.com.tw"/>
+    <hyperlink ref="K72" r:id="rId25" display="luckyeverydayday@gmail.com "/>
+    <hyperlink ref="K76" r:id="rId26" display="54544@sym.com.tw"/>
+    <hyperlink ref="K77" r:id="rId27" display="poyang394444@yahoo.com.tw"/>
+    <hyperlink ref="K80" r:id="rId28" display="hanoi-1@cht.com.tw"/>
+    <hyperlink ref="K81" r:id="rId29" display="eddiesheu@digiwin.com" tooltip="mailto:eddiesheu@digiwin.com"/>
+    <hyperlink ref="K83" r:id="rId30" display="zsy@easyenopto.com"/>
+    <hyperlink ref="K84" r:id="rId31" display="Denny_huang@mail.taya.com.tw"/>
+    <hyperlink ref="K87" r:id="rId32" display="mars_chen@wwrc.com"/>
+    <hyperlink ref="K89" r:id="rId33" display="terry090769@gmail.com"/>
+    <hyperlink ref="K90" r:id="rId34" display="hec101@hyec.com.tw"/>
+    <hyperlink ref="K92" r:id="rId35" display="bettina@dms-vp.com"/>
+    <hyperlink ref="K93" r:id="rId36" display="jason8235@yahoo.com.tw"/>
+    <hyperlink ref="K98" r:id="rId37" display="jimkuo1970@hotmail.com"/>
+    <hyperlink ref="K101" r:id="rId38" display="travis@c21capital.vn"/>
+    <hyperlink ref="K103" r:id="rId39" display="dennis@eup.com.tw"/>
+    <hyperlink ref="K106" r:id="rId40" display="adm@fav.com.vn"/>
+    <hyperlink ref="K107" r:id="rId41" display="info@hwatavina.com"/>
+    <hyperlink ref="K121" r:id="rId42" display="nicole99@fulilong.com"/>
+    <hyperlink ref="K123" r:id="rId43" display="pcc22t@pccchem.com.tw "/>
+    <hyperlink ref="K124" r:id="rId44" display="cw.chen@dragonjet.biz"/>
+    <hyperlink ref="K126" r:id="rId45" display="Delphi_Chiang@vn.msig-asia.com"/>
+    <hyperlink ref="K127" r:id="rId46" display="stanley17168@gmail.com"/>
+    <hyperlink ref="K128" r:id="rId47" display="AllanCheng@yuchens.com"/>
+    <hyperlink ref="K129" r:id="rId48" display="tseng.mart@163.com"/>
+    <hyperlink ref="K134" r:id="rId49" display="rose@ubot.com.vn"/>
+    <hyperlink ref="K135" r:id="rId50" display="yinlai@deloitte.com "/>
+    <hyperlink ref="K136" r:id="rId51" display="simon@esgame.vn"/>
+    <hyperlink ref="K141" r:id="rId52" display="longli@kingcar.com.tw"/>
+    <hyperlink ref="K142" r:id="rId53" display="powen919@ms33.hinet"/>
+    <hyperlink ref="K145" r:id="rId54" display="steven641218@gmail.com"/>
+    <hyperlink ref="K154" r:id="rId55" display="peter@saffroncasa.com"/>
+    <hyperlink ref="K156" r:id="rId56" display="ktchang@me-ps.com"/>
+    <hyperlink ref="K158" r:id="rId57" display="changxinvietnam@gmail.com"/>
+    <hyperlink ref="K159" r:id="rId58" display="ordimogan.ordin@gmail.com"/>
+    <hyperlink ref="K157" r:id="rId59" display="Andy00842003@gmail.com"/>
+    <hyperlink ref="K151" r:id="rId60" display="colin701213@gmail.com"/>
+    <hyperlink ref="K86" r:id="rId61" display="tom@acter.com.tw"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/wp-content/themes/suite/file/2022_ctchn_member.xlsx
+++ b/wp-content/themes/suite/file/2022_ctchn_member.xlsx
@@ -994,7 +994,7 @@
     <t>Xã Bằng Phúc, huyện Chợ Đồn, tỉnh Bắc Kạn</t>
   </si>
   <si>
-    <t>北𣴓省, 屯場縣, 平福社</t>
+    <t>北口省, 屯場縣, 平福社</t>
   </si>
   <si>
     <t>郭修政</t>
@@ -3640,15 +3640,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3679,15 +3671,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3701,8 +3685,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3716,8 +3708,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3738,6 +3731,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -3747,29 +3769,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3784,7 +3784,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3796,13 +3844,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3814,25 +3898,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3844,79 +3922,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3934,37 +3940,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4038,36 +4038,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -4094,6 +4064,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -4101,11 +4097,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4127,11 +4129,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4143,7 +4143,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4152,148 +4152,145 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4646,7 +4643,7 @@
   <sheetPr/>
   <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -4715,10 +4712,10 @@
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -4732,7 +4729,7 @@
         <v>19</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L2" s="1"/>
@@ -4746,8 +4743,8 @@
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
@@ -4757,7 +4754,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="L3" s="1"/>
@@ -4767,16 +4764,16 @@
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -4804,10 +4801,10 @@
       <c r="C5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -4829,16 +4826,16 @@
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -4852,7 +4849,7 @@
         <v>47</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>48</v>
       </c>
       <c r="L6" s="1"/>
@@ -4862,16 +4859,16 @@
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -4885,26 +4882,26 @@
         <v>54</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>55</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" ht="64.8" spans="1:13">
+    <row r="8" ht="48.6" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -4928,22 +4925,22 @@
       <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H9" s="1"/>
@@ -4951,7 +4948,7 @@
         <v>71</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>72</v>
       </c>
       <c r="L9" s="1"/>
@@ -4965,14 +4962,14 @@
       <c r="C10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H10" s="1"/>
@@ -4980,7 +4977,7 @@
         <v>78</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>79</v>
       </c>
       <c r="L10" s="1"/>
@@ -4990,22 +4987,22 @@
       <c r="A11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>86</v>
       </c>
       <c r="H11" s="1"/>
@@ -5019,17 +5016,17 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" ht="48.6" spans="1:13">
+    <row r="12" ht="32.4" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -5038,7 +5035,7 @@
       <c r="F12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>95</v>
       </c>
       <c r="H12" s="1"/>
@@ -5056,22 +5053,22 @@
       <c r="A13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>104</v>
       </c>
       <c r="H13" s="1"/>
@@ -5079,32 +5076,32 @@
         <v>105</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="3" t="s">
         <v>106</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" ht="48.6" spans="1:13">
+    <row r="14" ht="32.4" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>104</v>
       </c>
       <c r="H14" s="1"/>
@@ -5126,16 +5123,16 @@
       <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>104</v>
       </c>
       <c r="H15" s="1"/>
@@ -5143,7 +5140,7 @@
         <v>119</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="2" t="s">
         <v>120</v>
       </c>
       <c r="L15" s="1"/>
@@ -5154,19 +5151,19 @@
         <v>121</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>124</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>104</v>
       </c>
       <c r="H16" s="1"/>
@@ -5174,7 +5171,7 @@
         <v>126</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="2" t="s">
         <v>127</v>
       </c>
       <c r="L16" s="1"/>
@@ -5188,16 +5185,16 @@
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>104</v>
       </c>
       <c r="H17" s="1"/>
@@ -5209,26 +5206,26 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" ht="48.6" spans="1:13">
+    <row r="18" ht="32.4" spans="1:13">
       <c r="A18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>134</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>104</v>
       </c>
       <c r="H18" s="1"/>
@@ -5246,22 +5243,22 @@
       <c r="A19" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>104</v>
       </c>
       <c r="H19" s="1"/>
@@ -5275,7 +5272,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" ht="48.6" spans="1:13">
+    <row r="20" ht="32.4" spans="1:13">
       <c r="A20" s="1" t="s">
         <v>146</v>
       </c>
@@ -5285,14 +5282,14 @@
       <c r="C20" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>104</v>
       </c>
       <c r="H20" s="1"/>
@@ -5300,7 +5297,7 @@
         <v>151</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="2" t="s">
         <v>152</v>
       </c>
       <c r="L20" s="1"/>
@@ -5310,22 +5307,22 @@
       <c r="A21" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>104</v>
       </c>
       <c r="H21" s="1"/>
@@ -5333,7 +5330,7 @@
         <v>159</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="2" t="s">
         <v>160</v>
       </c>
       <c r="L21" s="1"/>
@@ -5343,22 +5340,22 @@
       <c r="A22" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>165</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>167</v>
       </c>
       <c r="H22" s="1"/>
@@ -5366,7 +5363,7 @@
         <v>168</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="2" t="s">
         <v>169</v>
       </c>
       <c r="L22" s="1"/>
@@ -5382,16 +5379,16 @@
       <c r="C23" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>174</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>176</v>
       </c>
       <c r="H23" s="1"/>
@@ -5399,32 +5396,32 @@
         <v>177</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="2" t="s">
         <v>178</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" ht="48.6" spans="1:13">
+    <row r="24" ht="32.4" spans="1:13">
       <c r="A24" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>183</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="2" t="s">
         <v>185</v>
       </c>
       <c r="H24" s="1"/>
@@ -5438,7 +5435,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" ht="48.6" spans="1:13">
+    <row r="25" ht="32.4" spans="1:13">
       <c r="A25" s="1" t="s">
         <v>188</v>
       </c>
@@ -5446,22 +5443,22 @@
       <c r="C25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>190</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="2" t="s">
         <v>192</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="2" t="s">
         <v>193</v>
       </c>
       <c r="L25" s="1"/>
@@ -5475,16 +5472,16 @@
       <c r="C26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="2" t="s">
         <v>198</v>
       </c>
       <c r="H26" s="1"/>
@@ -5492,7 +5489,7 @@
         <v>199</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="2" t="s">
         <v>200</v>
       </c>
       <c r="L26" s="1"/>
@@ -5505,19 +5502,19 @@
       <c r="B27" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>205</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="2" t="s">
         <v>192</v>
       </c>
       <c r="H27" s="1"/>
@@ -5535,22 +5532,22 @@
       <c r="A28" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>213</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="2" t="s">
         <v>192</v>
       </c>
       <c r="H28" s="1"/>
@@ -5558,7 +5555,7 @@
         <v>215</v>
       </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="2" t="s">
         <v>216</v>
       </c>
       <c r="L28" s="1"/>
@@ -5568,22 +5565,22 @@
       <c r="A29" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>218</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>221</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="2" t="s">
         <v>192</v>
       </c>
       <c r="H29" s="1"/>
@@ -5591,7 +5588,7 @@
         <v>223</v>
       </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="2" t="s">
         <v>224</v>
       </c>
       <c r="L29" s="1"/>
@@ -5607,16 +5604,16 @@
       <c r="C30" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="2" t="s">
         <v>192</v>
       </c>
       <c r="H30" s="1"/>
@@ -5632,22 +5629,22 @@
       <c r="A31" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>236</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="2" t="s">
         <v>192</v>
       </c>
       <c r="H31" s="1"/>
@@ -5655,7 +5652,7 @@
         <v>238</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="2" t="s">
         <v>239</v>
       </c>
       <c r="L31" s="1"/>
@@ -5665,22 +5662,22 @@
       <c r="A32" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>244</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="2" t="s">
         <v>192</v>
       </c>
       <c r="H32" s="1"/>
@@ -5688,7 +5685,7 @@
         <v>246</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="2" t="s">
         <v>247</v>
       </c>
       <c r="L32" s="1"/>
@@ -5698,22 +5695,22 @@
       <c r="A33" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>252</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="2" t="s">
         <v>192</v>
       </c>
       <c r="H33" s="1"/>
@@ -5721,7 +5718,7 @@
         <v>254</v>
       </c>
       <c r="J33" s="1"/>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="3" t="s">
         <v>255</v>
       </c>
       <c r="L33" s="1"/>
@@ -5731,22 +5728,22 @@
       <c r="A34" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>260</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H34" s="1"/>
@@ -5754,7 +5751,7 @@
         <v>262</v>
       </c>
       <c r="J34" s="1"/>
-      <c r="K34" s="3" t="s">
+      <c r="K34" s="2" t="s">
         <v>263</v>
       </c>
       <c r="L34" s="1"/>
@@ -5770,16 +5767,16 @@
       <c r="C35" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>268</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H35" s="1"/>
@@ -5797,22 +5794,22 @@
       <c r="A36" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>276</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H36" s="1"/>
@@ -5830,34 +5827,34 @@
       <c r="A37" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>281</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>284</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="3" t="s">
+      <c r="K37" s="2" t="s">
         <v>286</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" ht="48.6" spans="1:13">
+    <row r="38" ht="32.4" spans="1:13">
       <c r="A38" s="1" t="s">
         <v>287</v>
       </c>
@@ -5867,16 +5864,16 @@
       <c r="C38" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>291</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="2" t="s">
         <v>293</v>
       </c>
       <c r="H38" s="1"/>
@@ -5884,7 +5881,7 @@
         <v>294</v>
       </c>
       <c r="J38" s="1"/>
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="3" t="s">
         <v>295</v>
       </c>
       <c r="L38" s="1"/>
@@ -5894,22 +5891,22 @@
       <c r="A39" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>300</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="2" t="s">
         <v>302</v>
       </c>
       <c r="H39" s="1"/>
@@ -5917,7 +5914,7 @@
         <v>303</v>
       </c>
       <c r="J39" s="1"/>
-      <c r="K39" s="4" t="s">
+      <c r="K39" s="3" t="s">
         <v>304</v>
       </c>
       <c r="L39" s="1"/>
@@ -5927,22 +5924,22 @@
       <c r="A40" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="2" t="s">
         <v>300</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="2" t="s">
         <v>302</v>
       </c>
       <c r="H40" s="1"/>
@@ -5950,7 +5947,7 @@
         <v>308</v>
       </c>
       <c r="J40" s="1"/>
-      <c r="K40" s="4" t="s">
+      <c r="K40" s="3" t="s">
         <v>304</v>
       </c>
       <c r="L40" s="1"/>
@@ -5964,16 +5961,16 @@
       <c r="C41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="2" t="s">
         <v>311</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="2" t="s">
         <v>313</v>
       </c>
       <c r="H41" s="1"/>
@@ -5981,7 +5978,7 @@
         <v>314</v>
       </c>
       <c r="J41" s="1"/>
-      <c r="K41" s="3" t="s">
+      <c r="K41" s="2" t="s">
         <v>315</v>
       </c>
       <c r="L41" s="1"/>
@@ -5995,22 +5992,22 @@
       <c r="C42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="2" t="s">
         <v>318</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="2" t="s">
         <v>320</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="3" t="s">
+      <c r="K42" s="2" t="s">
         <v>321</v>
       </c>
       <c r="L42" s="1"/>
@@ -6026,7 +6023,7 @@
       <c r="C43" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>325</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -6035,7 +6032,7 @@
       <c r="F43" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="2" t="s">
         <v>328</v>
       </c>
       <c r="H43" s="1"/>
@@ -6051,24 +6048,24 @@
       <c r="A44" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>331</v>
       </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>332</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="2" t="s">
         <v>334</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="3" t="s">
+      <c r="K44" s="2" t="s">
         <v>335</v>
       </c>
       <c r="L44" s="1"/>
@@ -6078,16 +6075,16 @@
       <c r="A45" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>337</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="2" t="s">
         <v>340</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -6109,16 +6106,16 @@
       <c r="A46" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>344</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>347</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -6132,7 +6129,7 @@
         <v>349</v>
       </c>
       <c r="J46" s="1"/>
-      <c r="K46" s="4" t="s">
+      <c r="K46" s="3" t="s">
         <v>350</v>
       </c>
       <c r="L46" s="1"/>
@@ -6143,13 +6140,13 @@
         <v>351</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="2" t="s">
         <v>354</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -6163,7 +6160,7 @@
         <v>356</v>
       </c>
       <c r="J47" s="1"/>
-      <c r="K47" s="4" t="s">
+      <c r="K47" s="3" t="s">
         <v>357</v>
       </c>
       <c r="L47" s="1"/>
@@ -6179,7 +6176,7 @@
       <c r="C48" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -6196,7 +6193,7 @@
         <v>364</v>
       </c>
       <c r="J48" s="1"/>
-      <c r="K48" s="3" t="s">
+      <c r="K48" s="2" t="s">
         <v>365</v>
       </c>
       <c r="L48" s="1"/>
@@ -6212,10 +6209,10 @@
       <c r="C49" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="2" t="s">
         <v>370</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -6229,7 +6226,7 @@
         <v>372</v>
       </c>
       <c r="J49" s="1"/>
-      <c r="K49" s="4" t="s">
+      <c r="K49" s="3" t="s">
         <v>373</v>
       </c>
       <c r="L49" s="1"/>
@@ -6245,10 +6242,10 @@
       <c r="C50" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="2" t="s">
         <v>378</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -6262,7 +6259,7 @@
         <v>380</v>
       </c>
       <c r="J50" s="1"/>
-      <c r="K50" s="3" t="s">
+      <c r="K50" s="2" t="s">
         <v>381</v>
       </c>
       <c r="L50" s="1"/>
@@ -6272,16 +6269,16 @@
       <c r="A51" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>383</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="2" t="s">
         <v>386</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -6295,7 +6292,7 @@
         <v>388</v>
       </c>
       <c r="J51" s="1"/>
-      <c r="K51" s="4" t="s">
+      <c r="K51" s="3" t="s">
         <v>389</v>
       </c>
       <c r="L51" s="1"/>
@@ -6305,13 +6302,13 @@
       <c r="A52" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>391</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>393</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -6328,7 +6325,7 @@
         <v>396</v>
       </c>
       <c r="J52" s="1"/>
-      <c r="K52" s="3" t="s">
+      <c r="K52" s="2" t="s">
         <v>397</v>
       </c>
       <c r="L52" s="1"/>
@@ -6338,22 +6335,22 @@
       <c r="A53" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>399</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="2" t="s">
         <v>402</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="2" t="s">
         <v>404</v>
       </c>
       <c r="H53" s="1"/>
@@ -6361,7 +6358,7 @@
         <v>405</v>
       </c>
       <c r="J53" s="1"/>
-      <c r="K53" s="4" t="s">
+      <c r="K53" s="3" t="s">
         <v>406</v>
       </c>
       <c r="L53" s="1"/>
@@ -6377,10 +6374,10 @@
       <c r="C54" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="2" t="s">
         <v>411</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -6394,7 +6391,7 @@
         <v>413</v>
       </c>
       <c r="J54" s="1"/>
-      <c r="K54" s="4" t="s">
+      <c r="K54" s="3" t="s">
         <v>414</v>
       </c>
       <c r="L54" s="1"/>
@@ -6404,16 +6401,16 @@
       <c r="A55" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>416</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="2" t="s">
         <v>419</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -6427,7 +6424,7 @@
         <v>421</v>
       </c>
       <c r="J55" s="1"/>
-      <c r="K55" s="4" t="s">
+      <c r="K55" s="3" t="s">
         <v>422</v>
       </c>
       <c r="L55" s="1"/>
@@ -6437,16 +6434,16 @@
       <c r="A56" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="2" t="s">
         <v>427</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -6460,7 +6457,7 @@
         <v>429</v>
       </c>
       <c r="J56" s="1"/>
-      <c r="K56" s="4" t="s">
+      <c r="K56" s="3" t="s">
         <v>430</v>
       </c>
       <c r="L56" s="1"/>
@@ -6470,16 +6467,16 @@
       <c r="A57" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="2" t="s">
         <v>435</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -6493,7 +6490,7 @@
         <v>437</v>
       </c>
       <c r="J57" s="1"/>
-      <c r="K57" s="4" t="s">
+      <c r="K57" s="3" t="s">
         <v>438</v>
       </c>
       <c r="L57" s="1"/>
@@ -6503,16 +6500,16 @@
       <c r="A58" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>440</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="2" t="s">
         <v>443</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -6526,13 +6523,13 @@
         <v>445</v>
       </c>
       <c r="J58" s="1"/>
-      <c r="K58" s="3" t="s">
+      <c r="K58" s="2" t="s">
         <v>446</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" ht="48.6" spans="1:13">
+    <row r="59" ht="32.4" spans="1:13">
       <c r="A59" s="1" t="s">
         <v>447</v>
       </c>
@@ -6542,10 +6539,10 @@
       <c r="C59" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="2" t="s">
         <v>451</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -6559,13 +6556,13 @@
         <v>453</v>
       </c>
       <c r="J59" s="1"/>
-      <c r="K59" s="4" t="s">
+      <c r="K59" s="3" t="s">
         <v>454</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" ht="32.4" spans="1:13">
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
         <v>455</v>
       </c>
@@ -6578,13 +6575,13 @@
       <c r="D60" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="2" t="s">
         <v>459</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G60" s="2" t="s">
         <v>404</v>
       </c>
       <c r="H60" s="1"/>
@@ -6592,26 +6589,26 @@
         <v>461</v>
       </c>
       <c r="J60" s="1"/>
-      <c r="K60" s="3" t="s">
+      <c r="K60" s="2" t="s">
         <v>462</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" ht="48.6" spans="1:13">
+    <row r="61" ht="32.4" spans="1:13">
       <c r="A61" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>464</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="2" t="s">
         <v>467</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -6631,20 +6628,20 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" ht="64.8" spans="1:13">
+    <row r="62" ht="48.6" spans="1:13">
       <c r="A62" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>472</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="2" t="s">
         <v>475</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -6664,20 +6661,20 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" ht="48.6" spans="1:13">
+    <row r="63" ht="32.4" spans="1:13">
       <c r="A63" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>480</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="2" t="s">
         <v>483</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -6691,7 +6688,7 @@
         <v>485</v>
       </c>
       <c r="J63" s="1"/>
-      <c r="K63" s="4" t="s">
+      <c r="K63" s="3" t="s">
         <v>486</v>
       </c>
       <c r="L63" s="1"/>
@@ -6701,16 +6698,16 @@
       <c r="A64" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>488</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="2" t="s">
         <v>491</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -6724,7 +6721,7 @@
         <v>493</v>
       </c>
       <c r="J64" s="1"/>
-      <c r="K64" s="4" t="s">
+      <c r="K64" s="3" t="s">
         <v>494</v>
       </c>
       <c r="L64" s="1"/>
@@ -6734,16 +6731,16 @@
       <c r="A65" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="2" t="s">
         <v>499</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -6765,16 +6762,16 @@
       <c r="A66" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="2" t="s">
         <v>506</v>
       </c>
       <c r="F66" s="1" t="s">
@@ -6788,7 +6785,7 @@
         <v>508</v>
       </c>
       <c r="J66" s="1"/>
-      <c r="K66" s="4" t="s">
+      <c r="K66" s="3" t="s">
         <v>509</v>
       </c>
       <c r="L66" s="1"/>
@@ -6798,16 +6795,16 @@
       <c r="A67" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>511</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="2" t="s">
         <v>514</v>
       </c>
       <c r="F67" s="1" t="s">
@@ -6821,7 +6818,7 @@
         <v>516</v>
       </c>
       <c r="J67" s="1"/>
-      <c r="K67" s="4" t="s">
+      <c r="K67" s="3" t="s">
         <v>517</v>
       </c>
       <c r="L67" s="1"/>
@@ -6831,16 +6828,16 @@
       <c r="A68" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>519</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="2" t="s">
         <v>522</v>
       </c>
       <c r="F68" s="1" t="s">
@@ -6854,7 +6851,7 @@
         <v>524</v>
       </c>
       <c r="J68" s="1"/>
-      <c r="K68" s="3" t="s">
+      <c r="K68" s="2" t="s">
         <v>525</v>
       </c>
       <c r="L68" s="1"/>
@@ -6864,16 +6861,16 @@
       <c r="A69" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="2" t="s">
         <v>530</v>
       </c>
       <c r="F69" s="1" t="s">
@@ -6897,16 +6894,16 @@
       <c r="A70" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>535</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="2" t="s">
         <v>538</v>
       </c>
       <c r="F70" s="1" t="s">
@@ -6920,7 +6917,7 @@
         <v>540</v>
       </c>
       <c r="J70" s="1"/>
-      <c r="K70" s="3" t="s">
+      <c r="K70" s="2" t="s">
         <v>541</v>
       </c>
       <c r="L70" s="1"/>
@@ -6930,16 +6927,16 @@
       <c r="A71" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>543</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="2" t="s">
         <v>546</v>
       </c>
       <c r="F71" s="1" t="s">
@@ -6953,25 +6950,25 @@
         <v>548</v>
       </c>
       <c r="J71" s="1"/>
-      <c r="K71" s="4" t="s">
+      <c r="K71" s="3" t="s">
         <v>549</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" ht="48.6" spans="1:13">
+    <row r="72" ht="32.4" spans="1:13">
       <c r="A72" s="1" t="s">
         <v>550</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="F72" s="5" t="s">
         <v>553</v>
       </c>
       <c r="G72" s="1" t="s">
@@ -6982,22 +6979,22 @@
         <v>554</v>
       </c>
       <c r="J72" s="1"/>
-      <c r="K72" s="4" t="s">
+      <c r="K72" s="3" t="s">
         <v>555</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" ht="48.6" spans="1:13">
+    <row r="73" ht="32.4" spans="1:13">
       <c r="A73" s="1" t="s">
         <v>556</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="2" t="s">
         <v>558</v>
       </c>
       <c r="F73" s="1" t="s">
@@ -7009,13 +7006,13 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
-      <c r="K73" s="3" t="s">
+      <c r="K73" s="2" t="s">
         <v>560</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" ht="48.6" spans="1:13">
+    <row r="74" ht="32.4" spans="1:13">
       <c r="A74" s="1" t="s">
         <v>561</v>
       </c>
@@ -7025,10 +7022,10 @@
       <c r="C74" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="2" t="s">
         <v>565</v>
       </c>
       <c r="F74" s="1" t="s">
@@ -7052,14 +7049,14 @@
       <c r="A75" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>570</v>
       </c>
       <c r="C75" s="1"/>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="2" t="s">
         <v>318</v>
       </c>
       <c r="F75" s="1" t="s">
@@ -7073,7 +7070,7 @@
         <v>573</v>
       </c>
       <c r="J75" s="1"/>
-      <c r="K75" s="3" t="s">
+      <c r="K75" s="2" t="s">
         <v>574</v>
       </c>
       <c r="L75" s="1"/>
@@ -7083,13 +7080,13 @@
       <c r="A76" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>576</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="2" t="s">
         <v>578</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -7106,13 +7103,13 @@
         <v>581</v>
       </c>
       <c r="J76" s="1"/>
-      <c r="K76" s="4" t="s">
+      <c r="K76" s="3" t="s">
         <v>582</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" ht="48.6" spans="1:13">
+    <row r="77" ht="32.4" spans="1:13">
       <c r="A77" s="1" t="s">
         <v>583</v>
       </c>
@@ -7122,10 +7119,10 @@
       <c r="C77" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="2" t="s">
         <v>587</v>
       </c>
       <c r="F77" s="1" t="s">
@@ -7139,13 +7136,13 @@
         <v>589</v>
       </c>
       <c r="J77" s="1"/>
-      <c r="K77" s="4" t="s">
+      <c r="K77" s="3" t="s">
         <v>590</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" ht="48.6" spans="1:13">
+    <row r="78" ht="32.4" spans="1:13">
       <c r="A78" s="1" t="s">
         <v>591</v>
       </c>
@@ -7155,10 +7152,10 @@
       <c r="C78" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="2" t="s">
         <v>595</v>
       </c>
       <c r="F78" s="1" t="s">
@@ -7172,26 +7169,26 @@
         <v>597</v>
       </c>
       <c r="J78" s="1"/>
-      <c r="K78" s="3" t="s">
+      <c r="K78" s="2" t="s">
         <v>598</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
     </row>
-    <row r="79" ht="48.6" spans="1:13">
+    <row r="79" ht="32.4" spans="1:13">
       <c r="A79" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="2" t="s">
         <v>603</v>
       </c>
       <c r="F79" s="1" t="s">
@@ -7205,13 +7202,13 @@
         <v>605</v>
       </c>
       <c r="J79" s="1"/>
-      <c r="K79" s="3" t="s">
+      <c r="K79" s="2" t="s">
         <v>606</v>
       </c>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" ht="48.6" spans="1:13">
+    <row r="80" ht="32.4" spans="1:13">
       <c r="A80" s="1" t="s">
         <v>607</v>
       </c>
@@ -7221,10 +7218,10 @@
       <c r="C80" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="2" t="s">
         <v>611</v>
       </c>
       <c r="F80" s="1" t="s">
@@ -7238,26 +7235,26 @@
         <v>613</v>
       </c>
       <c r="J80" s="1"/>
-      <c r="K80" s="4" t="s">
+      <c r="K80" s="3" t="s">
         <v>614</v>
       </c>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" ht="48.6" spans="1:13">
+    <row r="81" ht="32.4" spans="1:13">
       <c r="A81" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="2" t="s">
         <v>619</v>
       </c>
       <c r="F81" s="1" t="s">
@@ -7271,26 +7268,26 @@
         <v>621</v>
       </c>
       <c r="J81" s="1"/>
-      <c r="K81" s="4" t="s">
+      <c r="K81" s="3" t="s">
         <v>622</v>
       </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" ht="48.6" spans="1:13">
+    <row r="82" ht="32.4" spans="1:13">
       <c r="A82" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>625</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="2" t="s">
         <v>627</v>
       </c>
       <c r="F82" s="1" t="s">
@@ -7310,20 +7307,20 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" ht="48.6" spans="1:13">
+    <row r="83" ht="32.4" spans="1:13">
       <c r="A83" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="2" t="s">
         <v>635</v>
       </c>
       <c r="F83" s="1" t="s">
@@ -7337,23 +7334,23 @@
         <v>637</v>
       </c>
       <c r="J83" s="1"/>
-      <c r="K83" s="4" t="s">
+      <c r="K83" s="3" t="s">
         <v>638</v>
       </c>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
     </row>
-    <row r="84" ht="48.6" spans="1:13">
+    <row r="84" ht="32.4" spans="1:13">
       <c r="A84" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="2" t="s">
         <v>642</v>
       </c>
       <c r="E84" s="1"/>
@@ -7368,7 +7365,7 @@
         <v>644</v>
       </c>
       <c r="J84" s="1"/>
-      <c r="K84" s="4" t="s">
+      <c r="K84" s="3" t="s">
         <v>645</v>
       </c>
       <c r="L84" s="1"/>
@@ -7384,10 +7381,10 @@
       <c r="C85" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="2" t="s">
         <v>650</v>
       </c>
       <c r="F85" s="1" t="s">
@@ -7401,7 +7398,7 @@
         <v>652</v>
       </c>
       <c r="J85" s="1"/>
-      <c r="K85" s="3" t="s">
+      <c r="K85" s="2" t="s">
         <v>653</v>
       </c>
       <c r="L85" s="1"/>
@@ -7411,16 +7408,16 @@
       <c r="A86" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="2" t="s">
         <v>658</v>
       </c>
       <c r="F86" s="1" t="s">
@@ -7434,7 +7431,7 @@
         <v>660</v>
       </c>
       <c r="J86" s="1"/>
-      <c r="K86" s="4" t="s">
+      <c r="K86" s="3" t="s">
         <v>661</v>
       </c>
       <c r="L86" s="1"/>
@@ -7444,16 +7441,16 @@
       <c r="A87" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="2" t="s">
         <v>666</v>
       </c>
       <c r="F87" s="1" t="s">
@@ -7467,22 +7464,22 @@
         <v>668</v>
       </c>
       <c r="J87" s="1"/>
-      <c r="K87" s="4" t="s">
+      <c r="K87" s="3" t="s">
         <v>669</v>
       </c>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
     </row>
-    <row r="88" ht="48.6" spans="1:13">
+    <row r="88" ht="32.4" spans="1:13">
       <c r="A88" s="1" t="s">
         <v>670</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="2" t="s">
         <v>672</v>
       </c>
       <c r="F88" s="1" t="s">
@@ -7492,7 +7489,7 @@
         <v>674</v>
       </c>
       <c r="H88" s="1"/>
-      <c r="I88" s="9" t="s">
+      <c r="I88" s="8" t="s">
         <v>675</v>
       </c>
       <c r="J88" s="1"/>
@@ -7506,13 +7503,13 @@
       <c r="A89" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>678</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="2" t="s">
         <v>680</v>
       </c>
       <c r="E89" s="1" t="s">
@@ -7525,11 +7522,11 @@
         <v>293</v>
       </c>
       <c r="H89" s="1"/>
-      <c r="I89" s="3" t="s">
+      <c r="I89" s="2" t="s">
         <v>683</v>
       </c>
       <c r="J89" s="1"/>
-      <c r="K89" s="4" t="s">
+      <c r="K89" s="3" t="s">
         <v>684</v>
       </c>
       <c r="L89" s="1"/>
@@ -7539,16 +7536,16 @@
       <c r="A90" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>686</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="2" t="s">
         <v>689</v>
       </c>
       <c r="F90" s="1" t="s">
@@ -7560,26 +7557,26 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
-      <c r="K90" s="4" t="s">
+      <c r="K90" s="3" t="s">
         <v>691</v>
       </c>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
     </row>
-    <row r="91" ht="48.6" spans="1:13">
+    <row r="91" ht="32.4" spans="1:13">
       <c r="A91" s="1" t="s">
         <v>692</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="2" t="s">
         <v>696</v>
       </c>
       <c r="F91" s="1" t="s">
@@ -7593,26 +7590,26 @@
         <v>698</v>
       </c>
       <c r="J91" s="1"/>
-      <c r="K91" s="4" t="s">
+      <c r="K91" s="3" t="s">
         <v>699</v>
       </c>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
     </row>
-    <row r="92" ht="48.6" spans="1:13">
+    <row r="92" ht="32.4" spans="1:13">
       <c r="A92" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="2" t="s">
         <v>704</v>
       </c>
       <c r="F92" s="1" t="s">
@@ -7626,7 +7623,7 @@
         <v>706</v>
       </c>
       <c r="J92" s="1"/>
-      <c r="K92" s="4" t="s">
+      <c r="K92" s="3" t="s">
         <v>707</v>
       </c>
       <c r="L92" s="1"/>
@@ -7638,10 +7635,10 @@
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="2" t="s">
         <v>710</v>
       </c>
       <c r="F93" s="1" t="s">
@@ -7653,7 +7650,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
-      <c r="K93" s="4" t="s">
+      <c r="K93" s="3" t="s">
         <v>712</v>
       </c>
       <c r="L93" s="1"/>
@@ -7667,10 +7664,10 @@
       <c r="C94" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="2" t="s">
         <v>716</v>
       </c>
       <c r="F94" s="1" t="s">
@@ -7694,16 +7691,16 @@
       <c r="A95" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="2" t="s">
         <v>724</v>
       </c>
       <c r="F95" s="1" t="s">
@@ -7729,10 +7726,10 @@
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" s="2" t="s">
         <v>730</v>
       </c>
       <c r="F96" s="1" t="s">
@@ -7756,16 +7753,16 @@
       <c r="A97" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="2" t="s">
         <v>738</v>
       </c>
       <c r="F97" s="1" t="s">
@@ -7779,7 +7776,7 @@
         <v>740</v>
       </c>
       <c r="J97" s="1"/>
-      <c r="K97" s="3" t="s">
+      <c r="K97" s="2" t="s">
         <v>741</v>
       </c>
       <c r="L97" s="1"/>
@@ -7789,16 +7786,16 @@
       <c r="A98" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>743</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="2" t="s">
         <v>746</v>
       </c>
       <c r="F98" s="1" t="s">
@@ -7812,7 +7809,7 @@
         <v>748</v>
       </c>
       <c r="J98" s="1"/>
-      <c r="K98" s="4" t="s">
+      <c r="K98" s="3" t="s">
         <v>749</v>
       </c>
       <c r="L98" s="1"/>
@@ -7824,7 +7821,7 @@
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="2" t="s">
         <v>751</v>
       </c>
       <c r="E99" s="1"/>
@@ -7845,20 +7842,20 @@
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
     </row>
-    <row r="100" ht="48.6" spans="1:13">
+    <row r="100" ht="32.4" spans="1:13">
       <c r="A100" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="2" t="s">
         <v>759</v>
       </c>
       <c r="F100" s="1" t="s">
@@ -7883,13 +7880,13 @@
         <v>763</v>
       </c>
       <c r="B101" s="1"/>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="2" t="s">
         <v>766</v>
       </c>
       <c r="F101" s="1" t="s">
@@ -7901,7 +7898,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
-      <c r="K101" s="4" t="s">
+      <c r="K101" s="3" t="s">
         <v>768</v>
       </c>
       <c r="L101" s="1"/>
@@ -7913,10 +7910,10 @@
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E102" s="2" t="s">
         <v>771</v>
       </c>
       <c r="F102" s="1" t="s">
@@ -7930,7 +7927,7 @@
         <v>773</v>
       </c>
       <c r="J102" s="1"/>
-      <c r="K102" s="3" t="s">
+      <c r="K102" s="2" t="s">
         <v>774</v>
       </c>
       <c r="L102" s="1"/>
@@ -7940,16 +7937,16 @@
       <c r="A103" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E103" s="2" t="s">
         <v>779</v>
       </c>
       <c r="F103" s="1" t="s">
@@ -7963,7 +7960,7 @@
         <v>781</v>
       </c>
       <c r="J103" s="1"/>
-      <c r="K103" s="4" t="s">
+      <c r="K103" s="3" t="s">
         <v>782</v>
       </c>
       <c r="L103" s="1"/>
@@ -7979,10 +7976,10 @@
       <c r="C104" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="2" t="s">
         <v>787</v>
       </c>
       <c r="F104" s="1" t="s">
@@ -7996,7 +7993,7 @@
         <v>789</v>
       </c>
       <c r="J104" s="1"/>
-      <c r="K104" s="3" t="s">
+      <c r="K104" s="2" t="s">
         <v>790</v>
       </c>
       <c r="L104" s="1"/>
@@ -8006,16 +8003,16 @@
       <c r="A105" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="2" t="s">
         <v>792</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E105" s="2" t="s">
         <v>795</v>
       </c>
       <c r="F105" s="1" t="s">
@@ -8027,7 +8024,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
-      <c r="K105" s="3" t="s">
+      <c r="K105" s="2" t="s">
         <v>797</v>
       </c>
       <c r="L105" s="1"/>
@@ -8039,10 +8036,10 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E106" s="2" t="s">
         <v>800</v>
       </c>
       <c r="F106" s="1" t="s">
@@ -8056,7 +8053,7 @@
         <v>802</v>
       </c>
       <c r="J106" s="1"/>
-      <c r="K106" s="4" t="s">
+      <c r="K106" s="3" t="s">
         <v>803</v>
       </c>
       <c r="L106" s="1"/>
@@ -8066,16 +8063,16 @@
       <c r="A107" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="2" t="s">
         <v>805</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E107" s="2" t="s">
         <v>808</v>
       </c>
       <c r="F107" s="1" t="s">
@@ -8089,7 +8086,7 @@
         <v>810</v>
       </c>
       <c r="J107" s="1"/>
-      <c r="K107" s="4" t="s">
+      <c r="K107" s="3" t="s">
         <v>811</v>
       </c>
       <c r="L107" s="1"/>
@@ -8105,7 +8102,7 @@
       <c r="C108" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="2" t="s">
         <v>815</v>
       </c>
       <c r="E108" s="1" t="s">
@@ -8122,7 +8119,7 @@
         <v>818</v>
       </c>
       <c r="J108" s="1"/>
-      <c r="K108" s="4" t="s">
+      <c r="K108" s="3" t="s">
         <v>819</v>
       </c>
       <c r="L108" s="1"/>
@@ -8132,16 +8129,16 @@
       <c r="A109" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="2" t="s">
         <v>824</v>
       </c>
       <c r="F109" s="1" t="s">
@@ -8155,7 +8152,7 @@
         <v>826</v>
       </c>
       <c r="J109" s="1"/>
-      <c r="K109" s="3" t="s">
+      <c r="K109" s="2" t="s">
         <v>827</v>
       </c>
       <c r="L109" s="1"/>
@@ -8165,16 +8162,16 @@
       <c r="A110" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="2" t="s">
         <v>832</v>
       </c>
       <c r="F110" s="1" t="s">
@@ -8188,7 +8185,7 @@
         <v>834</v>
       </c>
       <c r="J110" s="1"/>
-      <c r="K110" s="10" t="s">
+      <c r="K110" s="9" t="s">
         <v>835</v>
       </c>
       <c r="L110" s="1"/>
@@ -8200,13 +8197,13 @@
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E111" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="F111" s="7" t="s">
+      <c r="F111" s="6" t="s">
         <v>839</v>
       </c>
       <c r="G111" s="1" t="s">
@@ -8225,16 +8222,16 @@
       <c r="A112" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="2" t="s">
         <v>842</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E112" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F112" s="1" t="s">
@@ -8246,23 +8243,23 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
-      <c r="K112" s="3" t="s">
+      <c r="K112" s="2" t="s">
         <v>848</v>
       </c>
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
     </row>
-    <row r="113" ht="48.6" spans="1:13">
+    <row r="113" ht="32.4" spans="1:13">
       <c r="A113" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="2" t="s">
         <v>850</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="2" t="s">
         <v>852</v>
       </c>
       <c r="E113" s="1" t="s">
@@ -8289,13 +8286,13 @@
       <c r="A114" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="2" t="s">
         <v>858</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="2" t="s">
         <v>860</v>
       </c>
       <c r="E114" s="1"/>
@@ -8320,16 +8317,16 @@
       <c r="A115" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="E115" s="2" t="s">
         <v>868</v>
       </c>
       <c r="F115" s="1" t="s">
@@ -8354,13 +8351,13 @@
       <c r="B116" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E116" s="2" t="s">
         <v>875</v>
       </c>
       <c r="F116" s="1" t="s">
@@ -8374,7 +8371,7 @@
         <v>877</v>
       </c>
       <c r="J116" s="1"/>
-      <c r="K116" s="10" t="s">
+      <c r="K116" s="9" t="s">
         <v>878</v>
       </c>
       <c r="L116" s="1"/>
@@ -8384,13 +8381,13 @@
       <c r="A117" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="2" t="s">
         <v>880</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="2" t="s">
         <v>882</v>
       </c>
       <c r="E117" s="1"/>
@@ -8405,7 +8402,7 @@
         <v>884</v>
       </c>
       <c r="J117" s="1"/>
-      <c r="K117" s="3" t="s">
+      <c r="K117" s="2" t="s">
         <v>885</v>
       </c>
       <c r="L117" s="1"/>
@@ -8419,10 +8416,10 @@
       <c r="C118" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E118" s="2" t="s">
         <v>889</v>
       </c>
       <c r="F118" s="1" t="s">
@@ -8440,7 +8437,7 @@
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
     </row>
-    <row r="119" ht="64.8" spans="1:13">
+    <row r="119" ht="48.6" spans="1:13">
       <c r="A119" s="1" t="s">
         <v>892</v>
       </c>
@@ -8450,10 +8447,10 @@
       <c r="C119" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E119" s="2" t="s">
         <v>896</v>
       </c>
       <c r="F119" s="1" t="s">
@@ -8467,22 +8464,22 @@
         <v>898</v>
       </c>
       <c r="J119" s="1"/>
-      <c r="K119" s="3" t="s">
+      <c r="K119" s="2" t="s">
         <v>899</v>
       </c>
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
     </row>
-    <row r="120" ht="48.6" spans="1:13">
+    <row r="120" ht="32.4" spans="1:13">
       <c r="A120" s="1" t="s">
         <v>900</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E120" s="2" t="s">
         <v>902</v>
       </c>
       <c r="F120" s="1" t="s">
@@ -8504,16 +8501,16 @@
       <c r="A121" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="2" t="s">
         <v>906</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E121" s="2" t="s">
         <v>909</v>
       </c>
       <c r="F121" s="1" t="s">
@@ -8525,22 +8522,22 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
-      <c r="K121" s="4" t="s">
+      <c r="K121" s="3" t="s">
         <v>911</v>
       </c>
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
     </row>
-    <row r="122" ht="48.6" spans="1:13">
+    <row r="122" ht="32.4" spans="1:13">
       <c r="A122" s="1" t="s">
         <v>912</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E122" s="2" t="s">
         <v>914</v>
       </c>
       <c r="F122" s="1" t="s">
@@ -8554,26 +8551,26 @@
         <v>916</v>
       </c>
       <c r="J122" s="1"/>
-      <c r="K122" s="3" t="s">
+      <c r="K122" s="2" t="s">
         <v>917</v>
       </c>
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
     </row>
-    <row r="123" ht="48.6" spans="1:13">
+    <row r="123" ht="32.4" spans="1:13">
       <c r="A123" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D123" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E123" s="2" t="s">
         <v>922</v>
       </c>
       <c r="F123" s="1" t="s">
@@ -8587,26 +8584,26 @@
         <v>924</v>
       </c>
       <c r="J123" s="1"/>
-      <c r="K123" s="4" t="s">
+      <c r="K123" s="3" t="s">
         <v>925</v>
       </c>
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
     </row>
-    <row r="124" ht="32.4" spans="1:13">
+    <row r="124" ht="33.15" spans="1:13">
       <c r="A124" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="2" t="s">
         <v>927</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E124" s="2" t="s">
         <v>930</v>
       </c>
       <c r="F124" s="1" t="s">
@@ -8620,26 +8617,26 @@
         <v>932</v>
       </c>
       <c r="J124" s="1"/>
-      <c r="K124" s="4" t="s">
+      <c r="K124" s="3" t="s">
         <v>933</v>
       </c>
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
     </row>
-    <row r="125" ht="48.6" spans="1:13">
+    <row r="125" ht="32.4" spans="1:13">
       <c r="A125" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D125" s="2" t="s">
         <v>937</v>
       </c>
-      <c r="E125" s="8" t="s">
+      <c r="E125" s="7" t="s">
         <v>938</v>
       </c>
       <c r="F125" s="1" t="s">
@@ -8653,7 +8650,7 @@
         <v>940</v>
       </c>
       <c r="J125" s="1"/>
-      <c r="K125" s="3" t="s">
+      <c r="K125" s="2" t="s">
         <v>941</v>
       </c>
       <c r="L125" s="1"/>
@@ -8663,16 +8660,16 @@
       <c r="A126" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="E126" s="2" t="s">
         <v>946</v>
       </c>
       <c r="F126" s="1" t="s">
@@ -8682,30 +8679,30 @@
         <v>293</v>
       </c>
       <c r="H126" s="1"/>
-      <c r="I126" s="3" t="s">
+      <c r="I126" s="2" t="s">
         <v>948</v>
       </c>
       <c r="J126" s="1"/>
-      <c r="K126" s="4" t="s">
+      <c r="K126" s="3" t="s">
         <v>949</v>
       </c>
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
     </row>
-    <row r="127" ht="48.6" spans="1:13">
+    <row r="127" ht="32.4" spans="1:13">
       <c r="A127" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="2" t="s">
         <v>952</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="D127" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="E127" s="2" t="s">
         <v>954</v>
       </c>
       <c r="F127" s="1" t="s">
@@ -8719,7 +8716,7 @@
         <v>956</v>
       </c>
       <c r="J127" s="1"/>
-      <c r="K127" s="4" t="s">
+      <c r="K127" s="3" t="s">
         <v>957</v>
       </c>
       <c r="L127" s="1"/>
@@ -8729,16 +8726,16 @@
       <c r="A128" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="2" t="s">
         <v>959</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="E128" s="2" t="s">
         <v>962</v>
       </c>
       <c r="F128" s="1" t="s">
@@ -8752,7 +8749,7 @@
         <v>964</v>
       </c>
       <c r="J128" s="1"/>
-      <c r="K128" s="4" t="s">
+      <c r="K128" s="3" t="s">
         <v>965</v>
       </c>
       <c r="L128" s="1"/>
@@ -8762,16 +8759,16 @@
       <c r="A129" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D129" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="E129" s="2" t="s">
         <v>970</v>
       </c>
       <c r="F129" s="1" t="s">
@@ -8785,7 +8782,7 @@
         <v>972</v>
       </c>
       <c r="J129" s="1"/>
-      <c r="K129" s="4" t="s">
+      <c r="K129" s="3" t="s">
         <v>973</v>
       </c>
       <c r="L129" s="1"/>
@@ -8798,13 +8795,13 @@
       <c r="B130" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D130" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="E130" s="2" t="s">
         <v>978</v>
       </c>
       <c r="F130" s="1" t="s">
@@ -8824,20 +8821,20 @@
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
     </row>
-    <row r="131" ht="64.8" spans="1:13">
+    <row r="131" ht="48.6" spans="1:13">
       <c r="A131" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="2" t="s">
         <v>984</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D131" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="E131" s="2" t="s">
         <v>986</v>
       </c>
       <c r="F131" s="1" t="s">
@@ -8851,7 +8848,7 @@
         <v>988</v>
       </c>
       <c r="J131" s="1"/>
-      <c r="K131" s="3" t="s">
+      <c r="K131" s="2" t="s">
         <v>989</v>
       </c>
       <c r="L131" s="1"/>
@@ -8861,16 +8858,16 @@
       <c r="A132" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="2" t="s">
         <v>991</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="E132" s="2" t="s">
         <v>994</v>
       </c>
       <c r="F132" s="1" t="s">
@@ -8900,10 +8897,10 @@
       <c r="C133" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D133" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="E133" s="2" t="s">
         <v>1002</v>
       </c>
       <c r="F133" s="1" t="s">
@@ -8933,10 +8930,10 @@
       <c r="C134" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="E134" s="2" t="s">
         <v>1010</v>
       </c>
       <c r="F134" s="1" t="s">
@@ -8950,7 +8947,7 @@
         <v>1012</v>
       </c>
       <c r="J134" s="1"/>
-      <c r="K134" s="4" t="s">
+      <c r="K134" s="3" t="s">
         <v>1013</v>
       </c>
       <c r="L134" s="1"/>
@@ -8960,16 +8957,16 @@
       <c r="A135" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="2" t="s">
         <v>1015</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D135" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="E135" s="3" t="s">
+      <c r="E135" s="2" t="s">
         <v>1018</v>
       </c>
       <c r="F135" s="1" t="s">
@@ -8981,7 +8978,7 @@
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
-      <c r="K135" s="4" t="s">
+      <c r="K135" s="3" t="s">
         <v>1020</v>
       </c>
       <c r="L135" s="1"/>
@@ -8991,16 +8988,16 @@
       <c r="A136" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="2" t="s">
         <v>1022</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="2" t="s">
         <v>1023</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E136" s="2" t="s">
         <v>1025</v>
       </c>
       <c r="F136" s="1" t="s">
@@ -9014,22 +9011,22 @@
         <v>1027</v>
       </c>
       <c r="J136" s="1"/>
-      <c r="K136" s="4" t="s">
+      <c r="K136" s="3" t="s">
         <v>1028</v>
       </c>
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
     </row>
-    <row r="137" ht="48.6" spans="1:13">
+    <row r="137" ht="32.4" spans="1:13">
       <c r="A137" s="1" t="s">
         <v>1029</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
-      <c r="D137" s="3" t="s">
+      <c r="D137" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="E137" s="2" t="s">
         <v>1031</v>
       </c>
       <c r="F137" s="1" t="s">
@@ -9041,26 +9038,26 @@
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
-      <c r="K137" s="3" t="s">
+      <c r="K137" s="2" t="s">
         <v>1033</v>
       </c>
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
     </row>
-    <row r="138" ht="48.6" spans="1:13">
+    <row r="138" ht="32.4" spans="1:13">
       <c r="A138" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="2" t="s">
         <v>1035</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D138" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="E138" s="2" t="s">
         <v>1038</v>
       </c>
       <c r="F138" s="1" t="s">
@@ -9074,7 +9071,7 @@
         <v>1040</v>
       </c>
       <c r="J138" s="1"/>
-      <c r="K138" s="3" t="s">
+      <c r="K138" s="2" t="s">
         <v>1041</v>
       </c>
       <c r="L138" s="1"/>
@@ -9084,16 +9081,16 @@
       <c r="A139" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="2" t="s">
         <v>1043</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D139" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="E139" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="F139" s="1" t="s">
@@ -9113,20 +9110,20 @@
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
     </row>
-    <row r="140" ht="48.6" spans="1:13">
+    <row r="140" ht="32.4" spans="1:13">
       <c r="A140" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="2" t="s">
         <v>1051</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="E140" s="2" t="s">
         <v>1054</v>
       </c>
       <c r="F140" s="1" t="s">
@@ -9140,7 +9137,7 @@
         <v>1056</v>
       </c>
       <c r="J140" s="1"/>
-      <c r="K140" s="3" t="s">
+      <c r="K140" s="2" t="s">
         <v>1057</v>
       </c>
       <c r="L140" s="1"/>
@@ -9150,16 +9147,16 @@
       <c r="A141" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="2" t="s">
         <v>1059</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D141" s="2" t="s">
         <v>1061</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="E141" s="2" t="s">
         <v>1062</v>
       </c>
       <c r="F141" s="1" t="s">
@@ -9173,7 +9170,7 @@
         <v>1064</v>
       </c>
       <c r="J141" s="1"/>
-      <c r="K141" s="4" t="s">
+      <c r="K141" s="3" t="s">
         <v>1065</v>
       </c>
       <c r="L141" s="1"/>
@@ -9183,16 +9180,16 @@
       <c r="A142" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="2" t="s">
         <v>1067</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D142" s="2" t="s">
         <v>1069</v>
       </c>
-      <c r="E142" s="3" t="s">
+      <c r="E142" s="2" t="s">
         <v>1070</v>
       </c>
       <c r="F142" s="1" t="s">
@@ -9206,7 +9203,7 @@
         <v>1072</v>
       </c>
       <c r="J142" s="1"/>
-      <c r="K142" s="4" t="s">
+      <c r="K142" s="3" t="s">
         <v>1073</v>
       </c>
       <c r="L142" s="1"/>
@@ -9216,16 +9213,16 @@
       <c r="A143" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B143" s="10" t="s">
         <v>1075</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="D143" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="E143" s="3" t="s">
+      <c r="E143" s="2" t="s">
         <v>1078</v>
       </c>
       <c r="F143" s="1" t="s">
@@ -9239,7 +9236,7 @@
         <v>1080</v>
       </c>
       <c r="J143" s="1"/>
-      <c r="K143" s="3" t="s">
+      <c r="K143" s="2" t="s">
         <v>1081</v>
       </c>
       <c r="L143" s="1"/>
@@ -9255,10 +9252,10 @@
       <c r="C144" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D144" s="2" t="s">
         <v>1085</v>
       </c>
-      <c r="E144" s="3" t="s">
+      <c r="E144" s="2" t="s">
         <v>1086</v>
       </c>
       <c r="F144" s="1" t="s">
@@ -9272,26 +9269,26 @@
         <v>1088</v>
       </c>
       <c r="J144" s="1"/>
-      <c r="K144" s="3" t="s">
+      <c r="K144" s="2" t="s">
         <v>1089</v>
       </c>
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
     </row>
-    <row r="145" ht="48.6" spans="1:13">
+    <row r="145" ht="32.4" spans="1:13">
       <c r="A145" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="2" t="s">
         <v>1091</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="2" t="s">
         <v>1092</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="D145" s="2" t="s">
         <v>1093</v>
       </c>
-      <c r="E145" s="3" t="s">
+      <c r="E145" s="2" t="s">
         <v>1094</v>
       </c>
       <c r="F145" s="1" t="s">
@@ -9305,26 +9302,26 @@
         <v>1096</v>
       </c>
       <c r="J145" s="1"/>
-      <c r="K145" s="4" t="s">
+      <c r="K145" s="3" t="s">
         <v>1097</v>
       </c>
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
     </row>
-    <row r="146" ht="48.6" spans="1:13">
+    <row r="146" ht="32.4" spans="1:13">
       <c r="A146" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="2" t="s">
         <v>1099</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="D146" s="2" t="s">
         <v>1101</v>
       </c>
-      <c r="E146" s="3" t="s">
+      <c r="E146" s="2" t="s">
         <v>1102</v>
       </c>
       <c r="F146" s="1" t="s">
@@ -9338,7 +9335,7 @@
         <v>1104</v>
       </c>
       <c r="J146" s="1"/>
-      <c r="K146" s="3" t="s">
+      <c r="K146" s="2" t="s">
         <v>1105</v>
       </c>
       <c r="L146" s="1"/>
@@ -9348,16 +9345,16 @@
       <c r="A147" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="10" t="s">
         <v>1107</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="D147" s="2" t="s">
         <v>1109</v>
       </c>
-      <c r="E147" s="3" t="s">
+      <c r="E147" s="2" t="s">
         <v>1110</v>
       </c>
       <c r="F147" s="1" t="s">
@@ -9381,14 +9378,14 @@
       <c r="A148" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="10" t="s">
         <v>1115</v>
       </c>
       <c r="C148" s="1"/>
-      <c r="D148" s="3" t="s">
+      <c r="D148" s="2" t="s">
         <v>1116</v>
       </c>
-      <c r="E148" s="3" t="s">
+      <c r="E148" s="2" t="s">
         <v>1117</v>
       </c>
       <c r="F148" s="1" t="s">
@@ -9412,16 +9409,16 @@
       <c r="A149" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="10" t="s">
         <v>1122</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D149" s="2" t="s">
         <v>1124</v>
       </c>
-      <c r="E149" s="3" t="s">
+      <c r="E149" s="2" t="s">
         <v>1125</v>
       </c>
       <c r="F149" s="1" t="s">
@@ -9447,10 +9444,10 @@
       <c r="C150" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="D150" s="2" t="s">
         <v>1130</v>
       </c>
-      <c r="E150" s="3" t="s">
+      <c r="E150" s="2" t="s">
         <v>1131</v>
       </c>
       <c r="F150" s="1" t="s">
@@ -9474,10 +9471,10 @@
       <c r="C151" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="D151" s="3" t="s">
+      <c r="D151" s="2" t="s">
         <v>1135</v>
       </c>
-      <c r="E151" s="3" t="s">
+      <c r="E151" s="2" t="s">
         <v>1136</v>
       </c>
       <c r="F151" s="1" t="s">
@@ -9489,7 +9486,7 @@
         <v>1138</v>
       </c>
       <c r="J151" s="1"/>
-      <c r="K151" s="10" t="s">
+      <c r="K151" s="9" t="s">
         <v>1139</v>
       </c>
       <c r="L151" s="1"/>
@@ -9499,14 +9496,14 @@
       <c r="A152" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="B152" s="12" t="s">
+      <c r="B152" s="11" t="s">
         <v>1141</v>
       </c>
       <c r="C152" s="1"/>
-      <c r="D152" s="3" t="s">
+      <c r="D152" s="2" t="s">
         <v>1142</v>
       </c>
-      <c r="E152" s="3" t="s">
+      <c r="E152" s="2" t="s">
         <v>1143</v>
       </c>
       <c r="F152" s="1" t="s">
@@ -9518,26 +9515,26 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
-      <c r="K152" s="3" t="s">
+      <c r="K152" s="2" t="s">
         <v>1145</v>
       </c>
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
     </row>
-    <row r="153" ht="48.6" spans="1:13">
+    <row r="153" ht="32.4" spans="1:13">
       <c r="A153" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B153" s="10" t="s">
         <v>1147</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="2" t="s">
         <v>1148</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="D153" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="E153" s="3" t="s">
+      <c r="E153" s="2" t="s">
         <v>1150</v>
       </c>
       <c r="F153" s="1" t="s">
@@ -9551,7 +9548,7 @@
         <v>1152</v>
       </c>
       <c r="J153" s="1"/>
-      <c r="K153" s="3" t="s">
+      <c r="K153" s="2" t="s">
         <v>1153</v>
       </c>
       <c r="L153" s="1"/>
@@ -9561,14 +9558,14 @@
       <c r="A154" s="1" t="s">
         <v>1154</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B154" s="10" t="s">
         <v>1155</v>
       </c>
       <c r="C154" s="1"/>
-      <c r="D154" s="3" t="s">
+      <c r="D154" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E154" s="3" t="s">
+      <c r="E154" s="2" t="s">
         <v>1157</v>
       </c>
       <c r="F154" s="1" t="s">
@@ -9580,7 +9577,7 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
-      <c r="K154" s="4" t="s">
+      <c r="K154" s="3" t="s">
         <v>1159</v>
       </c>
       <c r="L154" s="1"/>
@@ -9591,7 +9588,7 @@
         <v>1160</v>
       </c>
       <c r="B155" s="1"/>
-      <c r="C155" s="12" t="s">
+      <c r="C155" s="11" t="s">
         <v>1161</v>
       </c>
       <c r="D155" s="1"/>
@@ -9615,16 +9612,16 @@
       <c r="A156" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="2" t="s">
         <v>1165</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="D156" s="2" t="s">
         <v>1167</v>
       </c>
-      <c r="E156" s="3" t="s">
+      <c r="E156" s="2" t="s">
         <v>1168</v>
       </c>
       <c r="F156" s="1" t="s">
@@ -9638,7 +9635,7 @@
         <v>1170</v>
       </c>
       <c r="J156" s="1"/>
-      <c r="K156" s="4" t="s">
+      <c r="K156" s="3" t="s">
         <v>1171</v>
       </c>
       <c r="L156" s="1"/>
@@ -9649,13 +9646,13 @@
         <v>1172</v>
       </c>
       <c r="B157" s="1"/>
-      <c r="C157" s="12" t="s">
+      <c r="C157" s="11" t="s">
         <v>1173</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="D157" s="2" t="s">
         <v>1174</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="E157" s="2" t="s">
         <v>1175</v>
       </c>
       <c r="F157" s="1" t="s">
@@ -9669,7 +9666,7 @@
         <v>1177</v>
       </c>
       <c r="J157" s="1"/>
-      <c r="K157" s="4" t="s">
+      <c r="K157" s="3" t="s">
         <v>1178</v>
       </c>
       <c r="L157" s="1"/>
@@ -9679,16 +9676,16 @@
       <c r="A158" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="2" t="s">
         <v>1181</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="D158" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="E158" s="2" t="s">
         <v>1183</v>
       </c>
       <c r="F158" s="1" t="s">
@@ -9702,26 +9699,26 @@
         <v>1185</v>
       </c>
       <c r="J158" s="1"/>
-      <c r="K158" s="4" t="s">
+      <c r="K158" s="3" t="s">
         <v>1186</v>
       </c>
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
     </row>
-    <row r="159" ht="48.6" spans="1:13">
+    <row r="159" ht="32.4" spans="1:13">
       <c r="A159" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="2" t="s">
         <v>1188</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="2" t="s">
         <v>1189</v>
       </c>
-      <c r="D159" s="3" t="s">
+      <c r="D159" s="2" t="s">
         <v>1190</v>
       </c>
-      <c r="E159" s="3" t="s">
+      <c r="E159" s="2" t="s">
         <v>1191</v>
       </c>
       <c r="F159" s="1" t="s">
@@ -9735,7 +9732,7 @@
         <v>1193</v>
       </c>
       <c r="J159" s="1"/>
-      <c r="K159" s="4" t="s">
+      <c r="K159" s="3" t="s">
         <v>1194</v>
       </c>
       <c r="L159" s="1"/>
